--- a/data/hotels_by_city/Dallas/Dallas_shard_102.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_102.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>lynns4282016</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>seberj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r577446150-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r566585457-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>lw3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r560633473-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Emily P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r556964115-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>I checked into the Comfort Inn on Friday, Jan 26, 2018 for business. I immediately checked my room and found that it had an adjoining door that did not lock. I told Paula at the front desk of my security concerns, and she moved me to a "Jacuzzi/room, [a per se upgrade with no additional charges]," with a dirty hot tub, a blow dryer that was beat up and not working, and the AC/Heat in the room only had AC. Even in Texas at this time, the nights got a bit chilly without any heat.  She wrote all of the items down and when I checked again with her on the updates on Saturday, she then advised me that no one was available to look at the heater until Monday. I then asked for a blow dryer that worked (I got one that was beat up and worked only on one speed, barely), and I got a blanket, and an attitude as she was quite perplexed with all going on. I asked if there was a manager I could speak to and she said she had not seen the manager in months (which the property sadly reflects as such...hot tub did not work, I overheard housekeepers that were quitting, and I had a lovely 5 X6 orange spot on my rug that had been there quite some time). To top if off, I got bed bugs on my neck. What...I checked into the Comfort Inn on Friday, Jan 26, 2018 for business. I immediately checked my room and found that it had an adjoining door that did not lock. I told Paula at the front desk of my security concerns, and she moved me to a "Jacuzzi/room, [a per se upgrade with no additional charges]," with a dirty hot tub, a blow dryer that was beat up and not working, and the AC/Heat in the room only had AC. Even in Texas at this time, the nights got a bit chilly without any heat.  She wrote all of the items down and when I checked again with her on the updates on Saturday, she then advised me that no one was available to look at the heater until Monday. I then asked for a blow dryer that worked (I got one that was beat up and worked only on one speed, barely), and I got a blanket, and an attitude as she was quite perplexed with all going on. I asked if there was a manager I could speak to and she said she had not seen the manager in months (which the property sadly reflects as such...hot tub did not work, I overheard housekeepers that were quitting, and I had a lovely 5 X6 orange spot on my rug that had been there quite some time). To top if off, I got bed bugs on my neck. What a disaster. The hotel sadly symbolizes the lack of care, concern, cleanliness, and functionality. It is also outdated with chain links on the back of the doors.  I am extremely disappointed, being a Choice Hotel member, always staying at Comfort Inns or Suites. I will never ever stay at this hotel again! Stay away!More</t>
   </si>
   <si>
+    <t>Dean I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r541481350-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>I prepaid my stay here through Hotwire.  They also charged my card for the same stay.  When you try to call no one answers the phone.  If you can pay cash I guess the place is  ok.  I wouldn't use a credit card.  The rooms had a strange smell and felt tired.  If you can get a cheap rate I guess it's not the worst motel.</t>
   </si>
   <si>
+    <t>Billy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r534364540-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>We stayed here on way to Waco. Wanted to see the Mesquite Rodeo arena.The Arena is Huge and the Hotel was Great.Kinda hard to get to but worth the effort.Breakfast Bar was Great also.We enjoyed Joe's Crab Shack for Dinner. Great Crab Legs and service.</t>
   </si>
   <si>
+    <t>larrycampbell49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r514242642-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>We stayed at this hotel last night. The ladies at the front desk where nice, but that's where the niceness of this hotel ends! The elevator was broken, which isn't a big deal, I don't mind taking the stairs! However, there where cockroaches in BOTH stairwells as well as it was so hot in the stairwells that just walking threw it made me feel sick! Once we got to our room, I checked everything over, my first though was nice looking room, but the calking in the bathtub was molded, and couch had a few rips, nothing major again. But when it came to sleeping, ALL of us had problems sleeping, we just couldn't!!! The beds are the very worst beds I've ever slept on and my back is definitely feeling it this morning. The pullout sofa was bent/broken also. The air conditioning doesn't work very well either. This morning, we went down to enjoy their breakfast. I found it frustrating that they have breakfast broken up in three different spots! Layout is definitely horrible, like the food itself was! Check out was a breeze though, and again, the lady at the front desk was very lovely. More</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r487950330-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>J Norfleete D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r471525415-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>Biggest problem was finding how to access this property. It sits behind other businesses and if you're approaching it from the west, you have to drive through a bank parking lot to get to it. The room was spacious with a kingsize bed and separate sitting area with loves eat couch and coffee table. In room microwave, refrigerator, and coffee maker. Bed was comfortable, plenty of pillows, towels were medium range. Breakfast well prepared and complete with eggs, sausage, biscuits, grits, waffle maker, pastries, toast, cereal, oatmeal, juice, coffee, yogurt, and fresh fruit. Staff was friendly and helpful. A good place to stay once you figure out how to access it.More</t>
   </si>
   <si>
+    <t>Pam G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r453104406-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>carolmP2669KX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r448162635-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Emily S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r440477751-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t>November 27, 2016</t>
   </si>
   <si>
+    <t>Premkumar M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r356736856-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Angel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r350280822-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -463,6 +508,9 @@
   </si>
   <si>
     <t>I stood here for almost a week. Staff was pleasant and very helpful. Rooms very clean.and comfortable . Breakfast was very good. Staff very good manners and were on it when needed. Very impressed. Would stay here again</t>
+  </si>
+  <si>
+    <t>kalalu18</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r343165484-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -496,12 +544,18 @@
 We didn't tuse the...I stayed with my family (four adults, one teen) on Jnauery, 2016. Staff was great, they had good manners and were always eager to help us in anything we needed, from recomdations to getting more towels.Breakfast was regular (biscuits, breakfast sausages, assorted cereals, waffles, muffins, toasts, milk, coffee and cranberry, orange and apple juices). They never ran out of items and the flavors were pretty good.The hotel has wide halls with good illumination. The carpets seemed to need to be cleaned. It's location y pretty decent, there are several restaurants nearby and it's a 15 to twnty minutes to downtoan Dallas depending on traffic. The premium outlets in Grand Prairie and Allen are about a forty minute drive. There's also a mall neabry with lots of stores like Forever 21, Sears and so on. The room had lots of space. The carpet needed to be cleaned as well, but it didn't smell bad. The bathroom was clean, there were no stains or rust. The beds were comfortble, with clean sheets as well.The only terrible thing was the sofa bed; the matress was practically made out of thin air and it had stains on it. We had to ask for sheets and  blankets. The house keepers made the beds but never the sofa bed. One lamp didn't work and another one didn't have a light bulb. There was a flat tv and a working A/C.  We didn't tuse the pool or hot tub but they were clean and functional. Overall, it's good for the money if you're not staying in al day.More</t>
   </si>
   <si>
+    <t>TravelingWhatleys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r340509780-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>340509780</t>
   </si>
   <si>
+    <t>David F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r335192870-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -529,6 +583,9 @@
     <t>We stayed here for one night while in town for a football bowl game and couldn't be happier.  The rooms are clean and comfortable.  Breakfast is good and the staff was very friendly.  The location is convenient to shopping and food.More</t>
   </si>
   <si>
+    <t>pat n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r330388266-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -547,6 +604,9 @@
     <t>Upon arrival staff greeted me with a smile and friendly helpful voice. Every time thereafter someone was waiting with a welcoming smile. Made me feel good about the motel. Motel was very nice and modern with ample well lit parking. Room had a mw, ref, 40"led tv with a good variety of channels (not just sports). Also a table/desk, multiple large mirrors and comfy beds. Nice Exercise room and outdoor pool also available. Breakfast was good but not great. It did provide a variety of eggs/sausage/yogurt/fruit as well as bagels toast and cereal. It would have received a higher rating except for the following shortcomings. Coffee pot in room but coffee was never provided for 3 nights, they did not clean pot nor did they clean the bathroom sink (which makes me wonder about other cleanings not performed.) The room had wifi but was slow and the A/C didn't work very well. room remained warm. they offered to move me or give me a fan....I chose the fan rather than moving all my stuff. It was tolerable. All said, the rate was reasonable for all that was provided. A little tricky to find. Look carefully because the drive is in between a brake service and another business. It's behind the subway which can't be missed on the corner,.More</t>
   </si>
   <si>
+    <t>Barbara J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r319864824-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -574,6 +634,9 @@
     <t>This hotel has the most amazing staff. Every time I stay here I get welcomed with smiling faces and legitimately happy front desk staff. Love it. Even though the hotel doesn't seem to be updated, it was clean and has a warm atmosphere that was very welcoming.More</t>
   </si>
   <si>
+    <t>Cedar_Park_chump</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r318753464-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -595,6 +658,9 @@
     <t>If you are going to stay in this hotel, make extra sure that you know its location.  The hotel needs better signage.  as it is almost impossible to find without GPS.  Its off the road behind a set of other businesses.  So either pack your GPS or use your streetview map beforehand so you know how to find this placeThe hotel lobby was nice, but the hotel needed an additional clerk.  The night clerk was overwhelmed by the volume of calls and guests. She did a great job, but there was only so much one person could do.  Additionally, the hotel could use some upkeep.  Some of the carpet looks very worn.  The room was really nice and clean.  The bed was comfortable.  The only complaint that I have is that shower was one of those showers built for shorter people.  The nice refrigerator and microwave are big pluses.The breakfast was your usual decent breakfast buffet with make it yourself Texas shaped waffles.  The breakfast area needs to be bigger.  Co-locating the business center in the same space adds to the congestion.I would stay at this hotel again if I was staying in Mesquite.More</t>
   </si>
   <si>
+    <t>Laura B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r316856614-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -613,6 +679,9 @@
     <t>Our group reserved two rooms, one of which was a handicapped room.  Regarding the handicapped room, the bedside lamp didn't work and the door to the bathroom was practically falling off.  There was some sort of black crud on the walls of the bathroom and there appeared to be dried urine in the corner of the bathroom.  The carpeting under the room sink was wet.  The second room/suite had a light bulb out over the sink and the chain lock on the door was broken.  Housekeeping made the beds the first night, but didn't empty the trash.  The second night, housekeeping didn't do anything at all except pick up the used towels and provide new ones.  Won't be staying there again and can't recommend anyone stay there.More</t>
   </si>
   <si>
+    <t>Libradisney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r292777159-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -640,6 +709,9 @@
     <t>We stopped at this hotel for one night while traveling.  It took a bit of time to find the hotel as the google maps app. had trouble locating the road we needed to turn on right.  It is right off the highway and you make a right turn and go around behind the Bank of America.  It was after 10:30 when we stopped and we were tired, so I was a little dismayed when the desk clerk mumbled to herself that she couldn't find our room.  I had book a room with a king sized bed.  She finally gave me a room.  When we went upstairs I found out that she had upgraded our room to a king suite with a jetted tub!  This was a really nice surprise.  There is a free breakfast, but it is only available 6 to 9 a.m. and we didn't get up early enough.  When we went to leave in the morning, we had to turn right out of the hotel and go down the road to turn around. I would stay here again, but if I could find one a little more out of the city I would.  Mesquite seems to be a suburb of Dallas.More</t>
   </si>
   <si>
+    <t>Steven M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r281686297-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -667,6 +739,9 @@
     <t>This is an older Choice hotel, but still decent. Staff was courteous. My room had a strong smell of antiseptic cleaner, and the front desk clerk explained that the room had recently been deep-cleaned and the smell would be from that. He offered to change my room a couple of times, but I decided to keep it. As another reviewer posted, it is very difficult to see from Beltlline, it took me 3 tries but fortunately my 12 year old son spotted the little sign. The only sign I ever saw was the big on on the 3 pass of the US 80 service road, so I new I was close and turned blindly between some buildings. Everything seemed clean enough. In a reply from February 10, 2015 the manager said that all furniture was being replaced. Well I can promise that as of June 20, 2015 that had not happened at least in my room. The office chair is old and stained, the coffee table has the trim pulling off, and other furniture is old and scratched. Also, the TV is quite a bit smaller than other hotels I've stayed at. Even at that, it's not bad and I'm not unhappy. I always try to book choice hotels, partially because I like that you can get a room with 2 queen beds, and the free breakfast that is included. I will give this room a "3", but new furniture...This is an older Choice hotel, but still decent. Staff was courteous. My room had a strong smell of antiseptic cleaner, and the front desk clerk explained that the room had recently been deep-cleaned and the smell would be from that. He offered to change my room a couple of times, but I decided to keep it. As another reviewer posted, it is very difficult to see from Beltlline, it took me 3 tries but fortunately my 12 year old son spotted the little sign. The only sign I ever saw was the big on on the 3 pass of the US 80 service road, so I new I was close and turned blindly between some buildings. Everything seemed clean enough. In a reply from February 10, 2015 the manager said that all furniture was being replaced. Well I can promise that as of June 20, 2015 that had not happened at least in my room. The office chair is old and stained, the coffee table has the trim pulling off, and other furniture is old and scratched. Also, the TV is quite a bit smaller than other hotels I've stayed at. Even at that, it's not bad and I'm not unhappy. I always try to book choice hotels, partially because I like that you can get a room with 2 queen beds, and the free breakfast that is included. I will give this room a "3", but new furniture and some updating would get that up to a 4.More</t>
   </si>
   <si>
+    <t>Vanessa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r273912858-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -694,6 +769,9 @@
     <t>This was one of the worst hotels I have ever been to. The building was old and needed some major updates. The person we checked in with was okay, but by no means welcoming. Once we got settled into our less than stellar room (yellowed towels, ripped chair cushion and grimy bathroom tiles), we decided to go check out the “hot” tub. There is an outdoor pool with an outdoor hot tub. We went out and the hot tub was ice cold. Me and my father in-law went inside to speak with the desk clerk. “Is there any way to turn on the heat or is the hot tub broken?”,my father in-law asked the desk clerk. The clerk had headphones on and took his head phones off and said with the rudest tone “What do you want?”  Then before my father in- law could repeat himself, the clerk said “Broken.” Not even a sorry or a full sentence. We then went back to our room and after a while decided to go up front and buy some snacks from the little pantry. We picked out a couple of things and walked up to the counter to pay. The same desk clerk was there. He rolled his eyes at us, took off his head phones and then made a huge annoyed sigh. He made it very clear that he hates his job. I almost felt bad for him.  There were not...This was one of the worst hotels I have ever been to. The building was old and needed some major updates. The person we checked in with was okay, but by no means welcoming. Once we got settled into our less than stellar room (yellowed towels, ripped chair cushion and grimy bathroom tiles), we decided to go check out the “hot” tub. There is an outdoor pool with an outdoor hot tub. We went out and the hot tub was ice cold. Me and my father in-law went inside to speak with the desk clerk. “Is there any way to turn on the heat or is the hot tub broken?”,my father in-law asked the desk clerk. The clerk had headphones on and took his head phones off and said with the rudest tone “What do you want?”  Then before my father in- law could repeat himself, the clerk said “Broken.” Not even a sorry or a full sentence. We then went back to our room and after a while decided to go up front and buy some snacks from the little pantry. We picked out a couple of things and walked up to the counter to pay. The same desk clerk was there. He rolled his eyes at us, took off his head phones and then made a huge annoyed sigh. He made it very clear that he hates his job. I almost felt bad for him.  There were not any bed bugs and I did not see any other bugs, so that is why I gave this place a 2 instead of 1. I felt this Comfort Suites was an insult to all the great Comfort Suites hotels I have stayed in, in the past. I would never recommend this place to anyone.More</t>
   </si>
   <si>
+    <t>DaveRLa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r273450574-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -712,6 +790,9 @@
     <t>Nice hotel. Generally very clean. Good beds, towels, and bath. Forget getting anything fixed. Room was not ready for use. Micerowave did not work, a/c unit had a noisy bearing, but did work.Limited channels on tv. WiFi did not work due to weak signal in our ground floor room near lobby. No computer center. Only one person on duty the time we were there. Booking appeared that hotel was nearly full, but was very few people there. Ended up calling hotel direct to be able to book room. Had no freezer space for my cold paks.More</t>
   </si>
   <si>
+    <t>Alan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r260693592-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -733,6 +814,9 @@
     <t>It seemed like every time we talked to staff about a problem they lied. I had a problem with my back and the desk chair in the room was a regular four legged chair and asked if they could trade out with a office chair and the staff told us that all the rooms had the same kind of chairs. Guess what as we were on our way to eat breakfast we saw a room that was open and that desk chair was a office chair. The pictures on the website showed office chairs. Later I talked to the desk about the spa and they told me it wasn't working and didn't know when it would be fixed. I stopped a staff personal later in the day and asked about the spa and they told me it was shut down for the winter. Had to go to the front desk several time for toilet paper ice bucket liners plastic cups.More</t>
   </si>
   <si>
+    <t>Barbara C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r252959818-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -760,6 +844,9 @@
     <t>Room was very clean and attractive.  Bed was very comfortable for us, but our son found large "potholes" in the sofa bed mattress.  It was so unsupportive that he just slept on folded up couch.  They did not have other king suite rooms available, or we would have attempted to switch.Housekeeping folks did a nice job keeping room clean.  Breakfast was OK, but nothing special.  Stations very scattered around small lobby, so you had to walk a lot to assemble juice, coffee, toast and eggs. Desk staff were ok, but not especially helpful or interested when we asked questions or commented on sofa bed.Price was right, and room was very quiet despite convenient location just off US 80.More</t>
   </si>
   <si>
+    <t>Auburnfan2514</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r251372391-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -790,6 +877,9 @@
     <t>The comfort suites in Mesquite Tx lives up to the brand promise of Choice Hotels in most areas but not all. I reserved my room on Choice hotels website and was very pleased with the price for a suite. After driving nine hours I was very happy to here my GPS say you have arrived at Comfort suites on the right. However there was no hotel only a car repair shop so I went down the road looking everywhere. Finally after turning around twice I caught a glimpse of the sign behind the buildings. I cut through some buildings and finally found my way back to the hotel. Upon entering the lobby there was no clerk and after a minute he came around the corner and only said hi after I said it first. The man had no smile, and his clothes looked like he through them on the floor last night and put them back on today. After I mentioned how difficult it was to find he just said well everyone built around us. I ask for information to a local steak restaurant and he told me directions but did not know the name. Management, please let your staff know that we as guest have many choices and if we have chosen you than be thankful because without us they don't have a job and that most of us are very tired when we arrive and a nice smile...The comfort suites in Mesquite Tx lives up to the brand promise of Choice Hotels in most areas but not all. I reserved my room on Choice hotels website and was very pleased with the price for a suite. After driving nine hours I was very happy to here my GPS say you have arrived at Comfort suites on the right. However there was no hotel only a car repair shop so I went down the road looking everywhere. Finally after turning around twice I caught a glimpse of the sign behind the buildings. I cut through some buildings and finally found my way back to the hotel. Upon entering the lobby there was no clerk and after a minute he came around the corner and only said hi after I said it first. The man had no smile, and his clothes looked like he through them on the floor last night and put them back on today. After I mentioned how difficult it was to find he just said well everyone built around us. I ask for information to a local steak restaurant and he told me directions but did not know the name. Management, please let your staff know that we as guest have many choices and if we have chosen you than be thankful because without us they don't have a job and that most of us are very tired when we arrive and a nice smile and greeting makes us feel very good. In addition have a list of restaurants and other services for your guest. Now for the good stuff, the room was very clean and everything else was top quality so I applaud the rest of the staff for doing a great job! Two things corrected and this stay would have been excellent. All and all I would recommend this hotel and would probably stay here again but if I do I hope the front desk clerk is in a better mood. I stayed here January 27th 2015More</t>
   </si>
   <si>
+    <t>Dodgesrw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r247481827-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -814,6 +904,9 @@
     <t>This is the best, cleanest and friendliest hotel we have stayed at. Nothing to complain about at all. The next morning when we were leaving I heard a manager tell the housekeeper if your not sure strip the room again just make sure it is clean. I thought that was great. Clean and sanitary is what we look for. More</t>
   </si>
   <si>
+    <t>Nouwandaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r243646063-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -868,6 +961,9 @@
     <t>Stayed at other motels in mesquite but think this is the best deal yet. a little cheaper than LQ with about the same amenities. Room was very clean and well maintained, spacious, king bed, sitting area with couch, refrig etc. breakfast was above average with eggs/biscuits, sausage, cereals, yogurt, fruits and more. Would definitely stay again. its close to the convention center/rodeo arena and close to restaurants, walmart, and more.More</t>
   </si>
   <si>
+    <t>David A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r226381104-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -895,6 +991,9 @@
     <t>I was in Texas training a new sales representative who lived in Forney, TX.  The overall exterior of the hotel is fine, but it is difficult to get to the hotel itself.  It is tucked behind a row of businesses, and you need to actually drive through the parking lof of a bank to get to the hotel.  The staff are not overly engaging, and actually seem detached.  I found them frequently just sitting at the front desk staring at the computer.  The room itself was fine and clean, but the breakfast area was never thoroughly cleaned after breakfast.  My represenative and I sat at these tables after breakfast and there was always syrup, jelly, or something that got on our papers.  I asked if I could use the business/conference room and was told that it is now a storage area.  If you are passing through and staying one night, fine.  If you stay longer or are on business, you will probably be disappointed.More</t>
   </si>
   <si>
+    <t>GaryBMesquite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r223390431-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -916,6 +1015,9 @@
     <t>A few years ago, we had our bathroom remodeled.  A two day project turned into a week, and aside from my being able to shower at work, my family had no place.  I contacted the management of Comfort Suites, who graciously offered to allow us use of a room for bathing for $10.00 per night.  I was impressed with the kindness of the staff, and the cleanliness of the hotel.  To top that off, as it was our anniversary, we were given a free night in a jacuzzi suite!  I realize it has been awhile since the stay and I was reluctant to post a review, but I did not want it to go unnoticed.  This is a great place to stay and is close to the Rodeo Center, Town East Mall, and other attractions.More</t>
   </si>
   <si>
+    <t>tripmagoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r212107464-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -940,6 +1042,9 @@
     <t>My wife and I began a two month US road trip on June 22, 2014.  Our past trips, worldwide, have been enhanced by doing research on Trip Advisor so we decided to do a “pay back” by doing daily reviews.  Our trip begins and ends in Naples, Florida.  (Most hotel locations are based on distance we wished to travel each day)Day Three - June 24. 2014 – Mesquite, TX. -  No real negative issues. At this price range one can rarely state that. Most important, we had a very clean and quiet room with a very comfortable bed. The standard Choice chain breakfast was quite acceptable. If you want eggs benedict stay at a Hilton.  A few small issues kept the rating from being excellent.  Floor of tub needed non-slip application, no TV in the workout room (looking at myself in the mirror in the morning is not appealing) and the computer was not working in the business center.More</t>
   </si>
   <si>
+    <t>Barbara W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r208125775-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1072,9 @@
     <t>We arrived at 9:00 pm and were happy there was a room available. . . A king instead of two beds but, hey....we did not have a reservation.  Room was just fine.  Only problem I had was not being able to get on the wifi for some reason.  Breakfast . . . I was not ready in time to go down but my husband said the biscuits and gravy were very good.  I asked him to bring me a coffee back and he said coffee was empty by the time he finished.  No biggie, we made some in the room.  We would stay here again.  Price was reasonable.More</t>
   </si>
   <si>
+    <t>Dalila M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r207632910-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1093,9 @@
     <t>Well first I would like to say. When I came in , the lady was super nice. My kids loved the place. They were excited about the pool of course. We had a graduation to attend. We got to our room and it was right around the exit door. So we loved it. We were able to take a nap before the party. So it was excellent. We loved the bed. Everything was excellent form entrance to exit. Kids were able to go to the pool and they loved their breakfast. Especially their TEXAS waffles ! We will see you in 2 weeks again. Another graduation to attend. Love you guys!More</t>
   </si>
   <si>
+    <t>thed3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r192981628-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1006,6 +1117,9 @@
     <t>Were staying with our daughter in Mesquite and our son came to visit so we picked the closest motel to stay in for 3 nights while our son and his wife stayed with our daughter.  The price was right. The room was great. Complete with a Jacuzzi, refrigerator, coffee maker and USB plugs on the desk.  The staff was friendly and courteous and helpful.  The free breakfast was somewhat skimpy compared to other motels we have stayed at but filling none the less.Only real complaint was the difficulty of the entrance.  You have to drive north on Beltline Road to a auto lube place and you will see a small sign saying "Comfort Suite".  If you are driving south on Beltline you have to go underneath Route 80 and make a U turn.Nonetheless, we would certainly stay here again and could recommend it to others.More</t>
   </si>
   <si>
+    <t>Karen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r155207558-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1136,9 @@
   </si>
   <si>
     <t>March 2013</t>
+  </si>
+  <si>
+    <t>incrediblySmart</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r151621783-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1057,6 +1174,9 @@
 I was almost expecting the room to have more noise than it did.   I didn't hear the noise of people checking in or the TV in the lobby, (and it was louder during breakfast hours), and I didn't hear people getting coffee or any noise like that, from the bed or the couch while I was getting ready in the morning.  I could hear activity but not conversations from close to...Have I stayed in better?  Yes.  Have I stayed in worse - oh, yeah.This fell on the upper end of the good side - but don't expect 1st class.If you're driving South on Beltline look for the Kwik Kar Lube and Tune sign on your left.It's larger than the Comfort Inn sign below it.  It's before the light at the highway.It was easier to turn in there, and go behind to find the Comfort Suites.My room (121) is on the corner of the hallway for the back entrance, and it's in the back of the hotel on the left (when looking from the front).  The room was a little noisy as new guests arrived through the back door, talked outside the window, or honked their door locks - but by 10/11pm I slept and didn't hear a sound.  It may not be the best room if you have young children or are a light sleeper.  Though it was super convenient to get morning coffee.I was almost expecting the room to have more noise than it did.   I didn't hear the noise of people checking in or the TV in the lobby, (and it was louder during breakfast hours), and I didn't hear people getting coffee or any noise like that, from the bed or the couch while I was getting ready in the morning.  I could hear activity but not conversations from close to the door or while in front of the mirror - but it wasn't disturbing at all.The room did smell a little stale at first, but turning up the fan, and it was great in no time.  The scents didn't linger - AT ALL.  I liked that the TV didn't have that stupid hotel menu thing on it every time I turned it on.  The wi-fi connection got on-line very quickly and wasn't some annoying process.  The speed was better than other hotel chains I've been in.  Probably because the hotel is a smaller size, and simple layout.The smaller property also more than likely attribute to the friendlier, and more patient staff.  I appreciated that.  At breakfast the staff seemed to recognize many of the (apparently) regular guests - and that's always a sign of a staff that appreciates their guests and strives to take care of them.  They refreshed the coffee when it got empty, and did it fast.  All in all it was a good stay.More</t>
   </si>
   <si>
+    <t>Rebecca H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r147801925-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1195,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Shawna S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r146018408-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1225,9 @@
     <t>This wasn't the worst hotel I have ever stayed in but it was close. First when we pulled up the front desk person was standing outside the front doors smoking. When we got into the room it smelled stale and just bad. There was scuff marks all over the walls EVERYWHERE! What made me mad about that was that its not that hard to paint over scuff marks. The pillows are really small. Comfortable but REALLY small. The bed was nice though. When I went to take a shower though the water was ice cold. I ended up washing my hair in the sink. When i complained about it the next morning while checking out the lady at the front desk just said "oh I am so sorry, I will pass that along to my manager so we can get the water fixed" very bad experience all togetherMore</t>
   </si>
   <si>
+    <t>gertrude22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r144629597-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1246,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Aunt_Tams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r143712033-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1264,9 @@
     <t>Husband and I spent the night in Mesquite for relaxation time. Thanks to the management at the hotel that was amazingly done. Will stay again. The food was good and the beds were comfortable to sleep in. The room was nice and big. It was nice to walk out of the room and right into breakfast!</t>
   </si>
   <si>
+    <t>Joe M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r142831091-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1285,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>choicegirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r142594740-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1168,6 +1303,9 @@
     <t>Daily cleaning was okay but the carpet and walls were very dirty--bottoms of white socks turned black with only a few trips across the room. Beds &amp; bedding were comfortable. Internet was good. Nice breakfast area but altho there was a caretaker, tables weren't kept clean and food was not kept well stocked. Bagels were available, but no pastries, bread or muffins. Bananas were overripe. Motel access is hard to find. Altho a major highway is near, room was pretty quiet.</t>
   </si>
   <si>
+    <t>bondgirl42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r138877783-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1327,9 @@
     <t>We have stayed at this property several times when we come to an event in the Metroplex. Check-in is quick with a friendly staff. The breakfast is always good--eggs, sausage, biscuits &amp; gravy, waffles, yogurt, bagels, and cereal! This time though, the room smelled like cigarette smoke although it is a non-smoking facility. And the carpet in our room was apparently FILTHY because my feet were black after walking around in the room for a while! The carpet needs a thorough deep-cleaning shampooing. The bedding is great--nice and firm mattress. But what is the deal with those postage-stamp shape and sized pillows??? Overall, we will continue to stay here but this property will be due for some remodeling within another couple of years. If you're heading south on Beltline, turn in beside the dry cleaners.More</t>
   </si>
   <si>
+    <t>niki r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r137955051-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1345,9 @@
     <t>My mother and I had to stay here for 5 weeks.  We couldnt have ask for a better place to stay while being out of our home.  The staff here is awesome. They are all very friendly and accomadating no matter what you need or who you ask.  Its a very clean hotel, and the rooms are big and spacious.  They have free hot breakfast too.  And its not just a cereal breakfast; they serve eggs, biscuits, sausage/bacon, waffles, all sorts of pastries, cereal and yogurts. If you want a nice, convenient, clean place to stay this is your hotel.</t>
   </si>
   <si>
+    <t>Trisha6341</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r118116325-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1222,6 +1366,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>greenmonstertaiwan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r116025519-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1387,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>heydawn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r104163180-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1406,9 @@
   </si>
   <si>
     <t>April 2011</t>
+  </si>
+  <si>
+    <t>Jackie T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r100892000-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1281,6 +1434,9 @@
 The front desk people were friendly.  The location of the motel was in a commercial and slightly seedy, but not too much (at night), area.  The back door that used the hotel key to get in was broken so the lock didn't work.  There were a few restaurnants nearby.  The breakfast was the typical Comfort Suites one except that the scrambled eggs were excellent.  They were made with fresh eggs.  My son told the breakfast lady that they tasted like Waffle House scrambled eggs.  She said that she worked at Waffle House besides working at that Comfort Suites....We stayed here on Thursday, March 10th since my older son was visiting SMU the next day.  The sheets and bathrooms were clean.  The first room they gave us had an iron impression in the carpet where someone had forgotten to pick it up before it was too late.  I immediately told them about it so that they wouldn't think that it was my fault.  The front desk woman asked if I wanted to change rooms, so I did.  The second room was okay except for an old piece of gum ground into the carpet.  Since it was late at night, I said I didn't want to change rooms again since it wasn't on the main walking path.  The overall room was clean including sheets and the bathroom. The beds were very comfortable.  It was time for the carpet to be shampooed.The front desk people were friendly.  The location of the motel was in a commercial and slightly seedy, but not too much (at night), area.  The back door that used the hotel key to get in was broken so the lock didn't work.  There were a few restaurnants nearby.  The breakfast was the typical Comfort Suites one except that the scrambled eggs were excellent.  They were made with fresh eggs.  My son told the breakfast lady that they tasted like Waffle House scrambled eggs.  She said that she worked at Waffle House besides working at that Comfort Suites.I am not sure if I'd stay here or not again.  I like to stay with Choice Hotels, but most of the ones I've stayed in in the Dallas area aren't that great for various reasons (better in Ft. Worth).More</t>
   </si>
   <si>
+    <t>droberts12378</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r68380451-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1455,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>cultureseek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r51964591-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1479,9 @@
     <t>We five were attending a Christmas concert in Dallas and needed two rooms. We were pleased with the desk's attitude as well as the breakfast. There were a couple of maintenance problems(phones between rooms and short time of disabled elevator), but on the whole we were quite satisfied.Be sure before you sign on the dotted line that you ask if there is a manager's discount or any other savings available. We were able to have some taken off our senior rate at this seasonal visit. The location is convenient.We ate at Steak Angus about a mile south on Beltline. Food was great with lots of choices, but don't expect it to be a "city" restaurant.More</t>
   </si>
   <si>
+    <t>vkosobucki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r36154149-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1338,6 +1500,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>TexasJean70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r21610587-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1351,6 +1516,9 @@
   </si>
   <si>
     <t>I had business in Mesquite Oct. 10, so chose this location for one night, Oct. 9. 2008.Was very nice, clean, great breakfast.  Found several places to eat within walking distance.  Desk personnel very helpful.  Will stay there again.</t>
+  </si>
+  <si>
+    <t>MrKevioni</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r13610217-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1374,6 +1542,9 @@
   <si>
     <t>I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"
 Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker...I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker was clean. Pretty much everything was prepared for the next person to stay, with prepared shampoo &amp; conditioner for showering or baths, body lotion, even a head cap for your showers. Stacks of towels were clean and present  in the bathroom and out.There was a sofa, tea table, and plenty of lamps in all directions. Room could be well litted if you wanted it to. Luckily, my room was 220, which is upstairs, and just right across from my room (which is a nice 5 steps away) were the elevators and vending machines of instant noodles, snacks, drinks, and ice. You'd think it'll be noisy when it's right next to the elevator, but it was pretty much quiet. Sure you can hear when someone is exiting or entering the hall, but unless you are just too sensitive, you wouldn't be bothered.Overall, I was very impressed with my stay. Everyone there in the lobby at breakfast hour (which was when I first checked in) seemed to have a good time, ranging from kids to adults and seniors. I would definitely stay here again. I wish I get the same quality room. If I do, then I'd be very happy. With a price of $85 plus tax, it was a good deal. I asked for a single bed, which was cheaper, but they were sold out. So if you are indeed looking for a single bed, you are...More</t>
+  </si>
+  <si>
+    <t>The-Motel-Mavens</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r8510340-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1911,43 +2082,47 @@
       <c r="A2" t="n">
         <v>52069</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1965,50 +2140,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52069</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125615</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2026,50 +2205,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52069</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2083,50 +2266,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52069</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125616</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2140,50 +2327,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52069</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>4496</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2197,50 +2388,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52069</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125617</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2254,41 +2449,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52069</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -2307,50 +2506,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52069</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125618</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2368,50 +2571,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52069</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>4496</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2425,50 +2632,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52069</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2488,50 +2699,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52069</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125619</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2551,41 +2766,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52069</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>23317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -2604,50 +2823,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52069</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2661,50 +2884,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52069</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125620</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2722,35 +2949,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52069</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>14883</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2766,51 +2997,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52069</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125621</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2828,50 +3060,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52069</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>58351</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2891,50 +3127,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52069</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125622</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2952,32 +3192,36 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52069</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125623</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s"/>
       <c r="K20" t="s"/>
@@ -2994,51 +3238,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52069</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>9516</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3050,56 +3295,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52069</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125624</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3117,50 +3366,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52069</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>9684</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3178,56 +3431,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52069</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>14578</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3243,56 +3500,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="X24" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52069</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3310,56 +3571,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="X25" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52069</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125625</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3377,56 +3642,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="X26" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52069</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>40956</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3444,56 +3713,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="X27" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52069</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>41150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3509,56 +3782,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X28" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52069</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125626</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3576,56 +3853,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X29" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52069</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>37916</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3641,56 +3922,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X30" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52069</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>4449</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3708,56 +3993,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="X31" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="Y31" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52069</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125627</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3773,56 +4062,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="X32" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52069</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125628</v>
+      </c>
+      <c r="C33" t="s">
+        <v>283</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3834,56 +4127,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X33" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52069</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125629</v>
+      </c>
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3901,56 +4198,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="X34" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Y34" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52069</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125623</v>
+      </c>
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3966,56 +4267,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52069</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4031,56 +4336,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="X36" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="Y36" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52069</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125630</v>
+      </c>
+      <c r="C37" t="s">
+        <v>321</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4098,50 +4407,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52069</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125631</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4163,56 +4476,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="X38" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="Y38" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52069</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3976</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4234,56 +4551,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="X39" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="Y39" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52069</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125632</v>
+      </c>
+      <c r="C40" t="s">
+        <v>348</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4305,56 +4626,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52069</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125633</v>
+      </c>
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="O41" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4376,56 +4701,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="X41" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="Y41" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52069</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4449,50 +4778,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52069</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125634</v>
+      </c>
+      <c r="C43" t="s">
+        <v>370</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4516,50 +4849,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52069</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>10808</v>
+      </c>
+      <c r="C44" t="s">
+        <v>378</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="O44" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4583,50 +4920,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52069</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125635</v>
+      </c>
+      <c r="C45" t="s">
+        <v>385</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="O45" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4648,56 +4989,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="X45" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="Y45" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52069</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125636</v>
+      </c>
+      <c r="C46" t="s">
+        <v>395</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4721,50 +5066,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52069</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125637</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="O47" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4788,50 +5137,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52069</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>4124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4855,50 +5208,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52069</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125638</v>
+      </c>
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="O49" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4922,50 +5279,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52069</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125639</v>
+      </c>
+      <c r="C50" t="s">
+        <v>421</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="J50" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="K50" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="O50" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4989,50 +5350,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52069</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125640</v>
+      </c>
+      <c r="C51" t="s">
+        <v>429</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="L51" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5056,50 +5421,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52069</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125641</v>
+      </c>
+      <c r="C52" t="s">
+        <v>435</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="J52" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="L52" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5121,50 +5490,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52069</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125642</v>
+      </c>
+      <c r="C53" t="s">
+        <v>442</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="J53" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="K53" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="L53" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5184,50 +5557,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52069</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125643</v>
+      </c>
+      <c r="C54" t="s">
+        <v>449</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="K54" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="L54" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5251,50 +5628,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52069</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>68553</v>
+      </c>
+      <c r="C55" t="s">
+        <v>456</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5318,50 +5699,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52069</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125644</v>
+      </c>
+      <c r="C56" t="s">
+        <v>464</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="J56" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="K56" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="L56" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="O56" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5385,50 +5770,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52069</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125645</v>
+      </c>
+      <c r="C57" t="s">
+        <v>471</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="J57" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="K57" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="L57" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5442,50 +5831,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>52069</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125646</v>
+      </c>
+      <c r="C58" t="s">
+        <v>479</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="J58" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K58" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="L58" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5509,41 +5902,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>52069</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125647</v>
+      </c>
+      <c r="C59" t="s">
+        <v>486</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="J59" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="K59" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="L59" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
@@ -5562,50 +5959,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>52069</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125648</v>
+      </c>
+      <c r="C60" t="s">
+        <v>492</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="J60" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="K60" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="L60" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="O60" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5629,50 +6030,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52069</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125649</v>
+      </c>
+      <c r="C61" t="s">
+        <v>500</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="J61" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="K61" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="L61" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="O61" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -5696,7 +6101,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_102.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_102.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="585">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,36 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>lynns4282016</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r594995355-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>293237</t>
+  </si>
+  <si>
+    <t>594995355</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Comfort Suites</t>
+  </si>
+  <si>
+    <t>My stay was long.  I complained about the smell of drugs and unauthorized entry into my room.  A few guests who allegedly were dealing drugs out of the hotel complained and I was asked to leave.  I paid my account up and the owner disrespectfully said he did not like the way I spoke to hi in front of his staff.  That is untrue.  Why would I stay a month if that was the case.  I also had my mail tampered with and am concerned these people with drugs think I was a problem when I was speaking up for myself and the children staying in the hotel.  Of course the owner took side and since he has another hotel, he is now hiding out.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was long.  I complained about the smell of drugs and unauthorized entry into my room.  A few guests who allegedly were dealing drugs out of the hotel complained and I was asked to leave.  I paid my account up and the owner disrespectfully said he did not like the way I spoke to hi in front of his staff.  That is untrue.  Why would I stay a month if that was the case.  I also had my mail tampered with and am concerned these people with drugs think I was a problem when I was speaking up for myself and the children staying in the hotel.  Of course the owner took side and since he has another hotel, he is now hiding out.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r581789260-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
-    <t>56280</t>
-  </si>
-  <si>
-    <t>293237</t>
-  </si>
-  <si>
     <t>581789260</t>
   </si>
   <si>
@@ -183,9 +198,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>seberj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r577446150-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -204,9 +216,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r566585457-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -225,9 +234,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>lw3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r560633473-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -249,9 +255,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Emily P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r556964115-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -273,9 +276,6 @@
     <t>I checked into the Comfort Inn on Friday, Jan 26, 2018 for business. I immediately checked my room and found that it had an adjoining door that did not lock. I told Paula at the front desk of my security concerns, and she moved me to a "Jacuzzi/room, [a per se upgrade with no additional charges]," with a dirty hot tub, a blow dryer that was beat up and not working, and the AC/Heat in the room only had AC. Even in Texas at this time, the nights got a bit chilly without any heat.  She wrote all of the items down and when I checked again with her on the updates on Saturday, she then advised me that no one was available to look at the heater until Monday. I then asked for a blow dryer that worked (I got one that was beat up and worked only on one speed, barely), and I got a blanket, and an attitude as she was quite perplexed with all going on. I asked if there was a manager I could speak to and she said she had not seen the manager in months (which the property sadly reflects as such...hot tub did not work, I overheard housekeepers that were quitting, and I had a lovely 5 X6 orange spot on my rug that had been there quite some time). To top if off, I got bed bugs on my neck. What...I checked into the Comfort Inn on Friday, Jan 26, 2018 for business. I immediately checked my room and found that it had an adjoining door that did not lock. I told Paula at the front desk of my security concerns, and she moved me to a "Jacuzzi/room, [a per se upgrade with no additional charges]," with a dirty hot tub, a blow dryer that was beat up and not working, and the AC/Heat in the room only had AC. Even in Texas at this time, the nights got a bit chilly without any heat.  She wrote all of the items down and when I checked again with her on the updates on Saturday, she then advised me that no one was available to look at the heater until Monday. I then asked for a blow dryer that worked (I got one that was beat up and worked only on one speed, barely), and I got a blanket, and an attitude as she was quite perplexed with all going on. I asked if there was a manager I could speak to and she said she had not seen the manager in months (which the property sadly reflects as such...hot tub did not work, I overheard housekeepers that were quitting, and I had a lovely 5 X6 orange spot on my rug that had been there quite some time). To top if off, I got bed bugs on my neck. What a disaster. The hotel sadly symbolizes the lack of care, concern, cleanliness, and functionality. It is also outdated with chain links on the back of the doors.  I am extremely disappointed, being a Choice Hotel member, always staying at Comfort Inns or Suites. I will never ever stay at this hotel again! Stay away!More</t>
   </si>
   <si>
-    <t>Dean I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r541481350-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -291,9 +291,6 @@
     <t>I prepaid my stay here through Hotwire.  They also charged my card for the same stay.  When you try to call no one answers the phone.  If you can pay cash I guess the place is  ok.  I wouldn't use a credit card.  The rooms had a strange smell and felt tired.  If you can get a cheap rate I guess it's not the worst motel.</t>
   </si>
   <si>
-    <t>Billy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r534364540-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>We stayed here on way to Waco. Wanted to see the Mesquite Rodeo arena.The Arena is Huge and the Hotel was Great.Kinda hard to get to but worth the effort.Breakfast Bar was Great also.We enjoyed Joe's Crab Shack for Dinner. Great Crab Legs and service.</t>
   </si>
   <si>
-    <t>larrycampbell49</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r514242642-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t>We stayed at this hotel last night. The ladies at the front desk where nice, but that's where the niceness of this hotel ends! The elevator was broken, which isn't a big deal, I don't mind taking the stairs! However, there where cockroaches in BOTH stairwells as well as it was so hot in the stairwells that just walking threw it made me feel sick! Once we got to our room, I checked everything over, my first though was nice looking room, but the calking in the bathtub was molded, and couch had a few rips, nothing major again. But when it came to sleeping, ALL of us had problems sleeping, we just couldn't!!! The beds are the very worst beds I've ever slept on and my back is definitely feeling it this morning. The pullout sofa was bent/broken also. The air conditioning doesn't work very well either. This morning, we went down to enjoy their breakfast. I found it frustrating that they have breakfast broken up in three different spots! Layout is definitely horrible, like the food itself was! Check out was a breeze though, and again, the lady at the front desk was very lovely. More</t>
   </si>
   <si>
-    <t>Robert S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r487950330-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -372,9 +363,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>J Norfleete D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r471525415-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -399,9 +387,6 @@
     <t>Biggest problem was finding how to access this property. It sits behind other businesses and if you're approaching it from the west, you have to drive through a bank parking lot to get to it. The room was spacious with a kingsize bed and separate sitting area with loves eat couch and coffee table. In room microwave, refrigerator, and coffee maker. Bed was comfortable, plenty of pillows, towels were medium range. Breakfast well prepared and complete with eggs, sausage, biscuits, grits, waffle maker, pastries, toast, cereal, oatmeal, juice, coffee, yogurt, and fresh fruit. Staff was friendly and helpful. A good place to stay once you figure out how to access it.More</t>
   </si>
   <si>
-    <t>Pam G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r453104406-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -438,9 +423,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>carolmP2669KX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r448162635-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -459,19 +441,122 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Emily S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r440477751-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>440477751</t>
   </si>
   <si>
-    <t>November 27, 2016</t>
-  </si>
-  <si>
-    <t>Premkumar M</t>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>A little difficult getting to the parking lot. You can access it from the exit road off US-80, if you can get over to the far right lane and turn right before getting down to the light. You can't tell this leads to the hotel, but it does, and it goes behind the bank. If you miss this, turn right at the light and then turn right at the 3rd entrance. I had a hard time with this. I always wanted to turn into the 2nd entrance, but that will not take you there. When leaving the hotel, you can only turn right. If you need to turn left, go down the exit road lane I mentioned earlier, then turn left at the light.
+Great location. Near the highway, near banks, gas stations, a mall, and plenty of restaurants. Not a ton of parking, esp handicap. But there is a pull through so you can unload or load at the door.
+This is an old hotel. There are some things that appeared updated and some things were definitely aged. The elevator was shaky and noisy. Our room had a nice sink and counter just outside the bathroom. The bathroom had the light switch on the wall outside the door, instead of inside the bathroom. The bathroom was old and slightly moldy. Extremely old tub. The water heated up extremely quick and became too hot, so be careful. The water pressure...A little difficult getting to the parking lot. You can access it from the exit road off US-80, if you can get over to the far right lane and turn right before getting down to the light. You can't tell this leads to the hotel, but it does, and it goes behind the bank. If you miss this, turn right at the light and then turn right at the 3rd entrance. I had a hard time with this. I always wanted to turn into the 2nd entrance, but that will not take you there. When leaving the hotel, you can only turn right. If you need to turn left, go down the exit road lane I mentioned earlier, then turn left at the light.Great location. Near the highway, near banks, gas stations, a mall, and plenty of restaurants. Not a ton of parking, esp handicap. But there is a pull through so you can unload or load at the door.This is an old hotel. There are some things that appeared updated and some things were definitely aged. The elevator was shaky and noisy. Our room had a nice sink and counter just outside the bathroom. The bathroom had the light switch on the wall outside the door, instead of inside the bathroom. The bathroom was old and slightly moldy. Extremely old tub. The water heated up extremely quick and became too hot, so be careful. The water pressure was perfect. The towels were of lower quality. The fridge and microwave were small and old, but worked perfectly fine. The couch and desk were also old, but still perfectly fine to use. Small partition between the sitting area and beds, but the tv is over by the beds and not the couch. The beds were slightly uncomfortable. The pillows small and slightly flat. One of our comforters had rips in it. Clean sheets and comforters. The ac worked great. Was a warm day, but the room was cold when we entered. Breakfast had biscuits and gravy. Good ole southern food. Had a decent assortment of breads, fruits, cereals, and self serve waffles. The juice was terrible, tasted like it was 2/3 water. Coffee decent. The tables were full, and went back to the room to eat. Staff was friendly and helpful.Overall, it's a decent stay. You think it's going to be old and nasty, but ends up being just a low key hotel that is generally clean and sufficient enough for a 1 or 2 night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>A little difficult getting to the parking lot. You can access it from the exit road off US-80, if you can get over to the far right lane and turn right before getting down to the light. You can't tell this leads to the hotel, but it does, and it goes behind the bank. If you miss this, turn right at the light and then turn right at the 3rd entrance. I had a hard time with this. I always wanted to turn into the 2nd entrance, but that will not take you there. When leaving the hotel, you can only turn right. If you need to turn left, go down the exit road lane I mentioned earlier, then turn left at the light.
+Great location. Near the highway, near banks, gas stations, a mall, and plenty of restaurants. Not a ton of parking, esp handicap. But there is a pull through so you can unload or load at the door.
+This is an old hotel. There are some things that appeared updated and some things were definitely aged. The elevator was shaky and noisy. Our room had a nice sink and counter just outside the bathroom. The bathroom had the light switch on the wall outside the door, instead of inside the bathroom. The bathroom was old and slightly moldy. Extremely old tub. The water heated up extremely quick and became too hot, so be careful. The water pressure...A little difficult getting to the parking lot. You can access it from the exit road off US-80, if you can get over to the far right lane and turn right before getting down to the light. You can't tell this leads to the hotel, but it does, and it goes behind the bank. If you miss this, turn right at the light and then turn right at the 3rd entrance. I had a hard time with this. I always wanted to turn into the 2nd entrance, but that will not take you there. When leaving the hotel, you can only turn right. If you need to turn left, go down the exit road lane I mentioned earlier, then turn left at the light.Great location. Near the highway, near banks, gas stations, a mall, and plenty of restaurants. Not a ton of parking, esp handicap. But there is a pull through so you can unload or load at the door.This is an old hotel. There are some things that appeared updated and some things were definitely aged. The elevator was shaky and noisy. Our room had a nice sink and counter just outside the bathroom. The bathroom had the light switch on the wall outside the door, instead of inside the bathroom. The bathroom was old and slightly moldy. Extremely old tub. The water heated up extremely quick and became too hot, so be careful. The water pressure was perfect. The towels were of lower quality. The fridge and microwave were small and old, but worked perfectly fine. The couch and desk were also old, but still perfectly fine to use. Small partition between the sitting area and beds, but the tv is over by the beds and not the couch. The beds were slightly uncomfortable. The pillows small and slightly flat. One of our comforters had rips in it. Clean sheets and comforters. The ac worked great. Was a warm day, but the room was cold when we entered. Breakfast had biscuits and gravy. Good ole southern food. Had a decent assortment of breads, fruits, cereals, and self serve waffles. The juice was terrible, tasted like it was 2/3 water. Coffee decent. The tables were full, and went back to the room to eat. Staff was friendly and helpful.Overall, it's a decent stay. You think it's going to be old and nasty, but ends up being just a low key hotel that is generally clean and sufficient enough for a 1 or 2 night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r437222786-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>437222786</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice stay </t>
+  </si>
+  <si>
+    <t>I have stayed here before. It is a really nice place. It's quiet and close to a lot of restaurants. A nice clean king room with a good selection of TV channels with a couch and fridge and microwave, a very good stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r404542346-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>404542346</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Used to be great</t>
+  </si>
+  <si>
+    <t>I first stayed here in 2011. The hotel was clean, staff was great, nothing but a great experience. Skip ahead to 2016....the hotel is in need of a good cleaning. The housekeeping staff seems to do the bare minimum to call the room :clean" I stayed 4 days and my room was never fully cleaned. The rest of the staff were professional enough. I did have a problem with my room and the manager took care of it. Breakfast is sufficient , and parking is free. If you need water, aspirin, or any last minute travel essentials I suggest going to the Walmart located nearby instead of purchasing from the hotel. a bottle of water is $2. Not sure if I would book this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I first stayed here in 2011. The hotel was clean, staff was great, nothing but a great experience. Skip ahead to 2016....the hotel is in need of a good cleaning. The housekeeping staff seems to do the bare minimum to call the room :clean" I stayed 4 days and my room was never fully cleaned. The rest of the staff were professional enough. I did have a problem with my room and the manager took care of it. Breakfast is sufficient , and parking is free. If you need water, aspirin, or any last minute travel essentials I suggest going to the Walmart located nearby instead of purchasing from the hotel. a bottle of water is $2. Not sure if I would book this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r397659790-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>397659790</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Stop with Grandsons Overnight</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites to meet our Daughter halfway from Houston and give her two sons back after their visit with us in Arkansas. The Hotel was nice, the room was clean and breakfast was sufficient. Parking was free. Our room was plenty big for 3 adults and 2 small boys. The price was very reasonable.We would recommend it to anyone needing a place to stay in Mesquite.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r368455265-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>368455265</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Not up to the Choice Hotel chain standards- It's the little things that matter!</t>
+  </si>
+  <si>
+    <t>The property is in need of maintenance and a thorough cleaning. When I notice the little things like a line of dust on the carpet next to the floor board, it tells me the room is not clean. I noticed the same dust in the hallways. When I notice holes in the wall where a hair dryer used to be in my room and the holes are not filled or painted, it makes me wonder what other maintenance has not been done. Same thing goes for the out of order ice machine. The A/C unit in the room was loud and never shut off. The fitted sheet on my bed was so worn out that I could see right through it. For these reasons, I will not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The property is in need of maintenance and a thorough cleaning. When I notice the little things like a line of dust on the carpet next to the floor board, it tells me the room is not clean. I noticed the same dust in the hallways. When I notice holes in the wall where a hair dryer used to be in my room and the holes are not filled or painted, it makes me wonder what other maintenance has not been done. Same thing goes for the out of order ice machine. The A/C unit in the room was loud and never shut off. The fitted sheet on my bed was so worn out that I could see right through it. For these reasons, I will not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r357819989-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>357819989</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>So So hotel didn't seem very professionally run</t>
+  </si>
+  <si>
+    <t>We needed a hotel last minute because of a family emergency in the area.  No reduced fees for people needing to be close to the hospital.  The staff couldn't seem to key card correctly and I was giving the card that worked next to mine.  My door was not shut by the housekeeping staff and thankfully only a phone charger was missing.  They didn't get my info so they could speak to me when the manager came in the next day.  Why she or he wasn't there at 2 p,m. I don't know.  They did get us on the first floor with rooms next to each other.  I saw one staff member dressed in a dirty t-shirt that had no logo on it.  The beds were hard, the housekeeping staff very poor at their jobs, dirty coffee makers, smoke alarms hanging,  microwaves that were yellow from popcorn and not being cleaned, coffee left inside of them. We chose Comfort because it was in a safe area even though further away from the hospital. Would we stay there again, probably not unless no other choice.The breakfast area is all over the place, cereal and bread in one location, coffee in another, and yogurt and hot food in another.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We needed a hotel last minute because of a family emergency in the area.  No reduced fees for people needing to be close to the hospital.  The staff couldn't seem to key card correctly and I was giving the card that worked next to mine.  My door was not shut by the housekeeping staff and thankfully only a phone charger was missing.  They didn't get my info so they could speak to me when the manager came in the next day.  Why she or he wasn't there at 2 p,m. I don't know.  They did get us on the first floor with rooms next to each other.  I saw one staff member dressed in a dirty t-shirt that had no logo on it.  The beds were hard, the housekeeping staff very poor at their jobs, dirty coffee makers, smoke alarms hanging,  microwaves that were yellow from popcorn and not being cleaned, coffee left inside of them. We chose Comfort because it was in a safe area even though further away from the hospital. Would we stay there again, probably not unless no other choice.The breakfast area is all over the place, cereal and bread in one location, coffee in another, and yogurt and hot food in another.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r356736856-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -492,9 +577,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Angel P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r350280822-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -508,9 +590,6 @@
   </si>
   <si>
     <t>I stood here for almost a week. Staff was pleasant and very helpful. Rooms very clean.and comfortable . Breakfast was very good. Staff very good manners and were on it when needed. Very impressed. Would stay here again</t>
-  </si>
-  <si>
-    <t>kalalu18</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r343165484-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -544,16 +623,28 @@
 We didn't tuse the...I stayed with my family (four adults, one teen) on Jnauery, 2016. Staff was great, they had good manners and were always eager to help us in anything we needed, from recomdations to getting more towels.Breakfast was regular (biscuits, breakfast sausages, assorted cereals, waffles, muffins, toasts, milk, coffee and cranberry, orange and apple juices). They never ran out of items and the flavors were pretty good.The hotel has wide halls with good illumination. The carpets seemed to need to be cleaned. It's location y pretty decent, there are several restaurants nearby and it's a 15 to twnty minutes to downtoan Dallas depending on traffic. The premium outlets in Grand Prairie and Allen are about a forty minute drive. There's also a mall neabry with lots of stores like Forever 21, Sears and so on. The room had lots of space. The carpet needed to be cleaned as well, but it didn't smell bad. The bathroom was clean, there were no stains or rust. The beds were comfortble, with clean sheets as well.The only terrible thing was the sofa bed; the matress was practically made out of thin air and it had stains on it. We had to ask for sheets and  blankets. The house keepers made the beds but never the sofa bed. One lamp didn't work and another one didn't have a light bulb. There was a flat tv and a working A/C.  We didn't tuse the pool or hot tub but they were clean and functional. Overall, it's good for the money if you're not staying in al day.More</t>
   </si>
   <si>
-    <t>TravelingWhatleys</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r340509780-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
     <t>340509780</t>
   </si>
   <si>
-    <t>David F</t>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Compared to other Comfort Suites, this is a very disappointing hotel.</t>
+  </si>
+  <si>
+    <t>Compared to other Comfort Suites, this is a very disappointing hotel.  The mattresses in the room seemed worn-out and the carpeting was stained.  There also appeared to be crumbs or something on the bedspread.  Most of all, the so-called breakfast was out of almost everything at 8:00 am, and when we told the staff, nobody seemed to care nor did they bring out additional items.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tasha G, General Manager at Comfort Suites Mesquite, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Compared to other Comfort Suites, this is a very disappointing hotel.  The mattresses in the room seemed worn-out and the carpeting was stained.  There also appeared to be crumbs or something on the bedspread.  Most of all, the so-called breakfast was out of almost everything at 8:00 am, and when we told the staff, nobody seemed to care nor did they bring out additional items.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r335192870-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -583,9 +674,6 @@
     <t>We stayed here for one night while in town for a football bowl game and couldn't be happier.  The rooms are clean and comfortable.  Breakfast is good and the staff was very friendly.  The location is convenient to shopping and food.More</t>
   </si>
   <si>
-    <t>pat n</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r330388266-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -604,9 +692,6 @@
     <t>Upon arrival staff greeted me with a smile and friendly helpful voice. Every time thereafter someone was waiting with a welcoming smile. Made me feel good about the motel. Motel was very nice and modern with ample well lit parking. Room had a mw, ref, 40"led tv with a good variety of channels (not just sports). Also a table/desk, multiple large mirrors and comfy beds. Nice Exercise room and outdoor pool also available. Breakfast was good but not great. It did provide a variety of eggs/sausage/yogurt/fruit as well as bagels toast and cereal. It would have received a higher rating except for the following shortcomings. Coffee pot in room but coffee was never provided for 3 nights, they did not clean pot nor did they clean the bathroom sink (which makes me wonder about other cleanings not performed.) The room had wifi but was slow and the A/C didn't work very well. room remained warm. they offered to move me or give me a fan....I chose the fan rather than moving all my stuff. It was tolerable. All said, the rate was reasonable for all that was provided. A little tricky to find. Look carefully because the drive is in between a brake service and another business. It's behind the subway which can't be missed on the corner,.More</t>
   </si>
   <si>
-    <t>Barbara J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r319864824-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -634,9 +719,6 @@
     <t>This hotel has the most amazing staff. Every time I stay here I get welcomed with smiling faces and legitimately happy front desk staff. Love it. Even though the hotel doesn't seem to be updated, it was clean and has a warm atmosphere that was very welcoming.More</t>
   </si>
   <si>
-    <t>Cedar_Park_chump</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r318753464-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -658,9 +740,6 @@
     <t>If you are going to stay in this hotel, make extra sure that you know its location.  The hotel needs better signage.  as it is almost impossible to find without GPS.  Its off the road behind a set of other businesses.  So either pack your GPS or use your streetview map beforehand so you know how to find this placeThe hotel lobby was nice, but the hotel needed an additional clerk.  The night clerk was overwhelmed by the volume of calls and guests. She did a great job, but there was only so much one person could do.  Additionally, the hotel could use some upkeep.  Some of the carpet looks very worn.  The room was really nice and clean.  The bed was comfortable.  The only complaint that I have is that shower was one of those showers built for shorter people.  The nice refrigerator and microwave are big pluses.The breakfast was your usual decent breakfast buffet with make it yourself Texas shaped waffles.  The breakfast area needs to be bigger.  Co-locating the business center in the same space adds to the congestion.I would stay at this hotel again if I was staying in Mesquite.More</t>
   </si>
   <si>
-    <t>Laura B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r316856614-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -679,9 +758,6 @@
     <t>Our group reserved two rooms, one of which was a handicapped room.  Regarding the handicapped room, the bedside lamp didn't work and the door to the bathroom was practically falling off.  There was some sort of black crud on the walls of the bathroom and there appeared to be dried urine in the corner of the bathroom.  The carpeting under the room sink was wet.  The second room/suite had a light bulb out over the sink and the chain lock on the door was broken.  Housekeeping made the beds the first night, but didn't empty the trash.  The second night, housekeeping didn't do anything at all except pick up the used towels and provide new ones.  Won't be staying there again and can't recommend anyone stay there.More</t>
   </si>
   <si>
-    <t>Libradisney</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r292777159-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -709,9 +785,6 @@
     <t>We stopped at this hotel for one night while traveling.  It took a bit of time to find the hotel as the google maps app. had trouble locating the road we needed to turn on right.  It is right off the highway and you make a right turn and go around behind the Bank of America.  It was after 10:30 when we stopped and we were tired, so I was a little dismayed when the desk clerk mumbled to herself that she couldn't find our room.  I had book a room with a king sized bed.  She finally gave me a room.  When we went upstairs I found out that she had upgraded our room to a king suite with a jetted tub!  This was a really nice surprise.  There is a free breakfast, but it is only available 6 to 9 a.m. and we didn't get up early enough.  When we went to leave in the morning, we had to turn right out of the hotel and go down the road to turn around. I would stay here again, but if I could find one a little more out of the city I would.  Mesquite seems to be a suburb of Dallas.More</t>
   </si>
   <si>
-    <t>Steven M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r281686297-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -739,9 +812,6 @@
     <t>This is an older Choice hotel, but still decent. Staff was courteous. My room had a strong smell of antiseptic cleaner, and the front desk clerk explained that the room had recently been deep-cleaned and the smell would be from that. He offered to change my room a couple of times, but I decided to keep it. As another reviewer posted, it is very difficult to see from Beltlline, it took me 3 tries but fortunately my 12 year old son spotted the little sign. The only sign I ever saw was the big on on the 3 pass of the US 80 service road, so I new I was close and turned blindly between some buildings. Everything seemed clean enough. In a reply from February 10, 2015 the manager said that all furniture was being replaced. Well I can promise that as of June 20, 2015 that had not happened at least in my room. The office chair is old and stained, the coffee table has the trim pulling off, and other furniture is old and scratched. Also, the TV is quite a bit smaller than other hotels I've stayed at. Even at that, it's not bad and I'm not unhappy. I always try to book choice hotels, partially because I like that you can get a room with 2 queen beds, and the free breakfast that is included. I will give this room a "3", but new furniture...This is an older Choice hotel, but still decent. Staff was courteous. My room had a strong smell of antiseptic cleaner, and the front desk clerk explained that the room had recently been deep-cleaned and the smell would be from that. He offered to change my room a couple of times, but I decided to keep it. As another reviewer posted, it is very difficult to see from Beltlline, it took me 3 tries but fortunately my 12 year old son spotted the little sign. The only sign I ever saw was the big on on the 3 pass of the US 80 service road, so I new I was close and turned blindly between some buildings. Everything seemed clean enough. In a reply from February 10, 2015 the manager said that all furniture was being replaced. Well I can promise that as of June 20, 2015 that had not happened at least in my room. The office chair is old and stained, the coffee table has the trim pulling off, and other furniture is old and scratched. Also, the TV is quite a bit smaller than other hotels I've stayed at. Even at that, it's not bad and I'm not unhappy. I always try to book choice hotels, partially because I like that you can get a room with 2 queen beds, and the free breakfast that is included. I will give this room a "3", but new furniture and some updating would get that up to a 4.More</t>
   </si>
   <si>
-    <t>Vanessa H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r273912858-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -769,9 +839,6 @@
     <t>This was one of the worst hotels I have ever been to. The building was old and needed some major updates. The person we checked in with was okay, but by no means welcoming. Once we got settled into our less than stellar room (yellowed towels, ripped chair cushion and grimy bathroom tiles), we decided to go check out the “hot” tub. There is an outdoor pool with an outdoor hot tub. We went out and the hot tub was ice cold. Me and my father in-law went inside to speak with the desk clerk. “Is there any way to turn on the heat or is the hot tub broken?”,my father in-law asked the desk clerk. The clerk had headphones on and took his head phones off and said with the rudest tone “What do you want?”  Then before my father in- law could repeat himself, the clerk said “Broken.” Not even a sorry or a full sentence. We then went back to our room and after a while decided to go up front and buy some snacks from the little pantry. We picked out a couple of things and walked up to the counter to pay. The same desk clerk was there. He rolled his eyes at us, took off his head phones and then made a huge annoyed sigh. He made it very clear that he hates his job. I almost felt bad for him.  There were not...This was one of the worst hotels I have ever been to. The building was old and needed some major updates. The person we checked in with was okay, but by no means welcoming. Once we got settled into our less than stellar room (yellowed towels, ripped chair cushion and grimy bathroom tiles), we decided to go check out the “hot” tub. There is an outdoor pool with an outdoor hot tub. We went out and the hot tub was ice cold. Me and my father in-law went inside to speak with the desk clerk. “Is there any way to turn on the heat or is the hot tub broken?”,my father in-law asked the desk clerk. The clerk had headphones on and took his head phones off and said with the rudest tone “What do you want?”  Then before my father in- law could repeat himself, the clerk said “Broken.” Not even a sorry or a full sentence. We then went back to our room and after a while decided to go up front and buy some snacks from the little pantry. We picked out a couple of things and walked up to the counter to pay. The same desk clerk was there. He rolled his eyes at us, took off his head phones and then made a huge annoyed sigh. He made it very clear that he hates his job. I almost felt bad for him.  There were not any bed bugs and I did not see any other bugs, so that is why I gave this place a 2 instead of 1. I felt this Comfort Suites was an insult to all the great Comfort Suites hotels I have stayed in, in the past. I would never recommend this place to anyone.More</t>
   </si>
   <si>
-    <t>DaveRLa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r273450574-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -790,9 +857,6 @@
     <t>Nice hotel. Generally very clean. Good beds, towels, and bath. Forget getting anything fixed. Room was not ready for use. Micerowave did not work, a/c unit had a noisy bearing, but did work.Limited channels on tv. WiFi did not work due to weak signal in our ground floor room near lobby. No computer center. Only one person on duty the time we were there. Booking appeared that hotel was nearly full, but was very few people there. Ended up calling hotel direct to be able to book room. Had no freezer space for my cold paks.More</t>
   </si>
   <si>
-    <t>Alan B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r260693592-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -814,9 +878,6 @@
     <t>It seemed like every time we talked to staff about a problem they lied. I had a problem with my back and the desk chair in the room was a regular four legged chair and asked if they could trade out with a office chair and the staff told us that all the rooms had the same kind of chairs. Guess what as we were on our way to eat breakfast we saw a room that was open and that desk chair was a office chair. The pictures on the website showed office chairs. Later I talked to the desk about the spa and they told me it wasn't working and didn't know when it would be fixed. I stopped a staff personal later in the day and asked about the spa and they told me it was shut down for the winter. Had to go to the front desk several time for toilet paper ice bucket liners plastic cups.More</t>
   </si>
   <si>
-    <t>Barbara C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r252959818-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -844,9 +905,6 @@
     <t>Room was very clean and attractive.  Bed was very comfortable for us, but our son found large "potholes" in the sofa bed mattress.  It was so unsupportive that he just slept on folded up couch.  They did not have other king suite rooms available, or we would have attempted to switch.Housekeeping folks did a nice job keeping room clean.  Breakfast was OK, but nothing special.  Stations very scattered around small lobby, so you had to walk a lot to assemble juice, coffee, toast and eggs. Desk staff were ok, but not especially helpful or interested when we asked questions or commented on sofa bed.Price was right, and room was very quiet despite convenient location just off US 80.More</t>
   </si>
   <si>
-    <t>Auburnfan2514</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r251372391-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -877,9 +935,6 @@
     <t>The comfort suites in Mesquite Tx lives up to the brand promise of Choice Hotels in most areas but not all. I reserved my room on Choice hotels website and was very pleased with the price for a suite. After driving nine hours I was very happy to here my GPS say you have arrived at Comfort suites on the right. However there was no hotel only a car repair shop so I went down the road looking everywhere. Finally after turning around twice I caught a glimpse of the sign behind the buildings. I cut through some buildings and finally found my way back to the hotel. Upon entering the lobby there was no clerk and after a minute he came around the corner and only said hi after I said it first. The man had no smile, and his clothes looked like he through them on the floor last night and put them back on today. After I mentioned how difficult it was to find he just said well everyone built around us. I ask for information to a local steak restaurant and he told me directions but did not know the name. Management, please let your staff know that we as guest have many choices and if we have chosen you than be thankful because without us they don't have a job and that most of us are very tired when we arrive and a nice smile...The comfort suites in Mesquite Tx lives up to the brand promise of Choice Hotels in most areas but not all. I reserved my room on Choice hotels website and was very pleased with the price for a suite. After driving nine hours I was very happy to here my GPS say you have arrived at Comfort suites on the right. However there was no hotel only a car repair shop so I went down the road looking everywhere. Finally after turning around twice I caught a glimpse of the sign behind the buildings. I cut through some buildings and finally found my way back to the hotel. Upon entering the lobby there was no clerk and after a minute he came around the corner and only said hi after I said it first. The man had no smile, and his clothes looked like he through them on the floor last night and put them back on today. After I mentioned how difficult it was to find he just said well everyone built around us. I ask for information to a local steak restaurant and he told me directions but did not know the name. Management, please let your staff know that we as guest have many choices and if we have chosen you than be thankful because without us they don't have a job and that most of us are very tired when we arrive and a nice smile and greeting makes us feel very good. In addition have a list of restaurants and other services for your guest. Now for the good stuff, the room was very clean and everything else was top quality so I applaud the rest of the staff for doing a great job! Two things corrected and this stay would have been excellent. All and all I would recommend this hotel and would probably stay here again but if I do I hope the front desk clerk is in a better mood. I stayed here January 27th 2015More</t>
   </si>
   <si>
-    <t>Dodgesrw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r247481827-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -904,9 +959,6 @@
     <t>This is the best, cleanest and friendliest hotel we have stayed at. Nothing to complain about at all. The next morning when we were leaving I heard a manager tell the housekeeper if your not sure strip the room again just make sure it is clean. I thought that was great. Clean and sanitary is what we look for. More</t>
   </si>
   <si>
-    <t>Nouwandaa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r243646063-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -961,9 +1013,6 @@
     <t>Stayed at other motels in mesquite but think this is the best deal yet. a little cheaper than LQ with about the same amenities. Room was very clean and well maintained, spacious, king bed, sitting area with couch, refrig etc. breakfast was above average with eggs/biscuits, sausage, cereals, yogurt, fruits and more. Would definitely stay again. its close to the convention center/rodeo arena and close to restaurants, walmart, and more.More</t>
   </si>
   <si>
-    <t>David A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r226381104-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -991,9 +1040,6 @@
     <t>I was in Texas training a new sales representative who lived in Forney, TX.  The overall exterior of the hotel is fine, but it is difficult to get to the hotel itself.  It is tucked behind a row of businesses, and you need to actually drive through the parking lof of a bank to get to the hotel.  The staff are not overly engaging, and actually seem detached.  I found them frequently just sitting at the front desk staring at the computer.  The room itself was fine and clean, but the breakfast area was never thoroughly cleaned after breakfast.  My represenative and I sat at these tables after breakfast and there was always syrup, jelly, or something that got on our papers.  I asked if I could use the business/conference room and was told that it is now a storage area.  If you are passing through and staying one night, fine.  If you stay longer or are on business, you will probably be disappointed.More</t>
   </si>
   <si>
-    <t>GaryBMesquite</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r223390431-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1015,9 +1061,6 @@
     <t>A few years ago, we had our bathroom remodeled.  A two day project turned into a week, and aside from my being able to shower at work, my family had no place.  I contacted the management of Comfort Suites, who graciously offered to allow us use of a room for bathing for $10.00 per night.  I was impressed with the kindness of the staff, and the cleanliness of the hotel.  To top that off, as it was our anniversary, we were given a free night in a jacuzzi suite!  I realize it has been awhile since the stay and I was reluctant to post a review, but I did not want it to go unnoticed.  This is a great place to stay and is close to the Rodeo Center, Town East Mall, and other attractions.More</t>
   </si>
   <si>
-    <t>tripmagoo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r212107464-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1042,9 +1085,6 @@
     <t>My wife and I began a two month US road trip on June 22, 2014.  Our past trips, worldwide, have been enhanced by doing research on Trip Advisor so we decided to do a “pay back” by doing daily reviews.  Our trip begins and ends in Naples, Florida.  (Most hotel locations are based on distance we wished to travel each day)Day Three - June 24. 2014 – Mesquite, TX. -  No real negative issues. At this price range one can rarely state that. Most important, we had a very clean and quiet room with a very comfortable bed. The standard Choice chain breakfast was quite acceptable. If you want eggs benedict stay at a Hilton.  A few small issues kept the rating from being excellent.  Floor of tub needed non-slip application, no TV in the workout room (looking at myself in the mirror in the morning is not appealing) and the computer was not working in the business center.More</t>
   </si>
   <si>
-    <t>Barbara W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r208125775-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1072,9 +1112,6 @@
     <t>We arrived at 9:00 pm and were happy there was a room available. . . A king instead of two beds but, hey....we did not have a reservation.  Room was just fine.  Only problem I had was not being able to get on the wifi for some reason.  Breakfast . . . I was not ready in time to go down but my husband said the biscuits and gravy were very good.  I asked him to bring me a coffee back and he said coffee was empty by the time he finished.  No biggie, we made some in the room.  We would stay here again.  Price was reasonable.More</t>
   </si>
   <si>
-    <t>Dalila M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r207632910-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1093,9 +1130,6 @@
     <t>Well first I would like to say. When I came in , the lady was super nice. My kids loved the place. They were excited about the pool of course. We had a graduation to attend. We got to our room and it was right around the exit door. So we loved it. We were able to take a nap before the party. So it was excellent. We loved the bed. Everything was excellent form entrance to exit. Kids were able to go to the pool and they loved their breakfast. Especially their TEXAS waffles ! We will see you in 2 weeks again. Another graduation to attend. Love you guys!More</t>
   </si>
   <si>
-    <t>thed3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r192981628-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1117,7 +1151,147 @@
     <t>Were staying with our daughter in Mesquite and our son came to visit so we picked the closest motel to stay in for 3 nights while our son and his wife stayed with our daughter.  The price was right. The room was great. Complete with a Jacuzzi, refrigerator, coffee maker and USB plugs on the desk.  The staff was friendly and courteous and helpful.  The free breakfast was somewhat skimpy compared to other motels we have stayed at but filling none the less.Only real complaint was the difficulty of the entrance.  You have to drive north on Beltline Road to a auto lube place and you will see a small sign saying "Comfort Suite".  If you are driving south on Beltline you have to go underneath Route 80 and make a U turn.Nonetheless, we would certainly stay here again and could recommend it to others.More</t>
   </si>
   <si>
-    <t>Karen D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r181314965-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>181314965</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>Second time I have stayed here.  Reserved on line.  Large room.  Reserved a king bed; got a king with jacuzzi.  Spacious room and bathroom.  Fine breakfast in the morning and the people working the breakfast were paying attention to the hot food.  Excellent value.  We were here for the OU-Texas game; just down I-30 about 12 miles to the Cotton Bowl at the State Fair.  Much better staying to the east than to the north or south as the traffic is not so bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Mathew D, General Manager at Comfort Suites Mesquite, responded to this reviewResponded November 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2013</t>
+  </si>
+  <si>
+    <t>Second time I have stayed here.  Reserved on line.  Large room.  Reserved a king bed; got a king with jacuzzi.  Spacious room and bathroom.  Fine breakfast in the morning and the people working the breakfast were paying attention to the hot food.  Excellent value.  We were here for the OU-Texas game; just down I-30 about 12 miles to the Cotton Bowl at the State Fair.  Much better staying to the east than to the north or south as the traffic is not so bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r179466915-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>179466915</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>No complaints here...nice hotel, clean rooms, great value.  We were staying here for a softball tournament and it was more than adequate for our trip.  Great breakfast in the morning.  My children enjoyed making the waffles :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>Mathew D, Manager at Comfort Suites Mesquite, responded to this reviewResponded October 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2013</t>
+  </si>
+  <si>
+    <t>No complaints here...nice hotel, clean rooms, great value.  We were staying here for a softball tournament and it was more than adequate for our trip.  Great breakfast in the morning.  My children enjoyed making the waffles :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r174811955-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>174811955</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Not a priviledge</t>
+  </si>
+  <si>
+    <t>We chose the Comfort Suites, Mesquite because it was
+a) close to the Dallas City and b) was cheaper to stay here than in the city.
+But I must admit that, and I'm sorry to say:  This hotel is NOT the standard we normally find at Comfort Suites hotels.
+The staff was nice, friendly, but the hotel itself is a bit used and in need of a fresh-up. 
+The couch and chair in the reception area was really dirty and worn - must be replaced- I for one wouldn't sit in it.
+The room itself was OK, and the beds/pillows as expected.
+The breakfast area was OK, but the brakfast itself ran out fast, and was not filled adequately as
+the breakfast staff was more into small talking with the recptionist, so we had to ask for things several times.
+Several of the eggs in the fridge was brown and was not removed (they were still there the day after) - yuck.
+And the promised 'coffee all day' ? nope not here. When we returned after a day in Dallas - no coffee and it was not replaced. Why you ask ? Because the receptionist was busy watching NFL preseason on the TV.
+I am really sorry for this rather negative review, but I didn't expect nor hoped for this when we booked this hotel, as all the Comfort Suites we've stayed in has been really good and pleasant -...We chose the Comfort Suites, Mesquite because it wasa) close to the Dallas City and b) was cheaper to stay here than in the city.But I must admit that, and I'm sorry to say:  This hotel is NOT the standard we normally find at Comfort Suites hotels.The staff was nice, friendly, but the hotel itself is a bit used and in need of a fresh-up. The couch and chair in the reception area was really dirty and worn - must be replaced- I for one wouldn't sit in it.The room itself was OK, and the beds/pillows as expected.The breakfast area was OK, but the brakfast itself ran out fast, and was not filled adequately asthe breakfast staff was more into small talking with the recptionist, so we had to ask for things several times.Several of the eggs in the fridge was brown and was not removed (they were still there the day after) - yuck.And the promised 'coffee all day' ? nope not here. When we returned after a day in Dallas - no coffee and it was not replaced. Why you ask ? Because the receptionist was busy watching NFL preseason on the TV.I am really sorry for this rather negative review, but I didn't expect nor hoped for this when we booked this hotel, as all the Comfort Suites we've stayed in has been really good and pleasant - just not this one.I'm a choice privilege member, but I can't really say that it was a privilege to stay here apart from the rate - sorry Comfort Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Mathew D, Manager at Comfort Suites Mesquite, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>We chose the Comfort Suites, Mesquite because it was
+a) close to the Dallas City and b) was cheaper to stay here than in the city.
+But I must admit that, and I'm sorry to say:  This hotel is NOT the standard we normally find at Comfort Suites hotels.
+The staff was nice, friendly, but the hotel itself is a bit used and in need of a fresh-up. 
+The couch and chair in the reception area was really dirty and worn - must be replaced- I for one wouldn't sit in it.
+The room itself was OK, and the beds/pillows as expected.
+The breakfast area was OK, but the brakfast itself ran out fast, and was not filled adequately as
+the breakfast staff was more into small talking with the recptionist, so we had to ask for things several times.
+Several of the eggs in the fridge was brown and was not removed (they were still there the day after) - yuck.
+And the promised 'coffee all day' ? nope not here. When we returned after a day in Dallas - no coffee and it was not replaced. Why you ask ? Because the receptionist was busy watching NFL preseason on the TV.
+I am really sorry for this rather negative review, but I didn't expect nor hoped for this when we booked this hotel, as all the Comfort Suites we've stayed in has been really good and pleasant -...We chose the Comfort Suites, Mesquite because it wasa) close to the Dallas City and b) was cheaper to stay here than in the city.But I must admit that, and I'm sorry to say:  This hotel is NOT the standard we normally find at Comfort Suites hotels.The staff was nice, friendly, but the hotel itself is a bit used and in need of a fresh-up. The couch and chair in the reception area was really dirty and worn - must be replaced- I for one wouldn't sit in it.The room itself was OK, and the beds/pillows as expected.The breakfast area was OK, but the brakfast itself ran out fast, and was not filled adequately asthe breakfast staff was more into small talking with the recptionist, so we had to ask for things several times.Several of the eggs in the fridge was brown and was not removed (they were still there the day after) - yuck.And the promised 'coffee all day' ? nope not here. When we returned after a day in Dallas - no coffee and it was not replaced. Why you ask ? Because the receptionist was busy watching NFL preseason on the TV.I am really sorry for this rather negative review, but I didn't expect nor hoped for this when we booked this hotel, as all the Comfort Suites we've stayed in has been really good and pleasant - just not this one.I'm a choice privilege member, but I can't really say that it was a privilege to stay here apart from the rate - sorry Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r167080250-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>167080250</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Fine for a short stay</t>
+  </si>
+  <si>
+    <t>We selected this hotel as a midway point between Half Price Books in Dallas and the Terrell Performing Arts Center where we were going to see a Southern Gospel concert.  It suited our needs well and was easy to find.  It's unusual that you must go through a strip center parking lot to get to the building, but no biggie really.  The room itself was o.k. nothing great, but I was not expecting fancy.  We booked a room with 2 queen size beds, but they seemed more like a double bed to me.  I didn't officially measure the beds so I can't say for sure.  The pillows on the bed are square...as a math teacher I love squares....but I certainly did not love the square pillows!  They were uncomfortable and left both my husband and myself with a crick in our neck :(  Overall the room was, like I said ok, but some attention to detail would have been nice.  For example, the clock was unplugged (which I easily fixed) and the blowdryer was inoperable (which I was unable to fix), and the bathroom could have used a coat of paint.Breakfast downstairs was a bit underwhelming...cereal, toast etc.  We opted to eat out on our way to the bookstore instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Mathew D, General Manager at Comfort Suites Mesquite, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>We selected this hotel as a midway point between Half Price Books in Dallas and the Terrell Performing Arts Center where we were going to see a Southern Gospel concert.  It suited our needs well and was easy to find.  It's unusual that you must go through a strip center parking lot to get to the building, but no biggie really.  The room itself was o.k. nothing great, but I was not expecting fancy.  We booked a room with 2 queen size beds, but they seemed more like a double bed to me.  I didn't officially measure the beds so I can't say for sure.  The pillows on the bed are square...as a math teacher I love squares....but I certainly did not love the square pillows!  They were uncomfortable and left both my husband and myself with a crick in our neck :(  Overall the room was, like I said ok, but some attention to detail would have been nice.  For example, the clock was unplugged (which I easily fixed) and the blowdryer was inoperable (which I was unable to fix), and the bathroom could have used a coat of paint.Breakfast downstairs was a bit underwhelming...cereal, toast etc.  We opted to eat out on our way to the bookstore instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r155528197-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>155528197</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Excellent Based on Value</t>
+  </si>
+  <si>
+    <t>I have stayed at this property numerous times over the last 8 or so years. What you get for the value makes this a great place to stay. It is tucked into an odd corner of N. Beltline Rd and Hwy 80 that make it kind of hard to find. That likely helps travelers get a low rate. There isn't anything really fancy about it but it's a good buy.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r155207558-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1133,12 +1307,6 @@
   </si>
   <si>
     <t>We had a five day stay here.  I can't say enough good things.  The room was perfect.  I loved the separate built in area for the microwave and refrigerator.  It included a small sink, coffee maker and cabinets.  I've never been on a room with that design before. I enjoy details of that nature. It beats the regular microwave balancing on top of the fridge that most places offer.  The staff was amazing and so friendly.  Sasha at the front desk went above and beyond and her enthusiasm was appreciated.  Breakfast had a nice set up and was always replenished.  24 hour coffee was wonderful!</t>
-  </si>
-  <si>
-    <t>March 2013</t>
-  </si>
-  <si>
-    <t>incrediblySmart</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r151621783-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1174,9 +1342,6 @@
 I was almost expecting the room to have more noise than it did.   I didn't hear the noise of people checking in or the TV in the lobby, (and it was louder during breakfast hours), and I didn't hear people getting coffee or any noise like that, from the bed or the couch while I was getting ready in the morning.  I could hear activity but not conversations from close to...Have I stayed in better?  Yes.  Have I stayed in worse - oh, yeah.This fell on the upper end of the good side - but don't expect 1st class.If you're driving South on Beltline look for the Kwik Kar Lube and Tune sign on your left.It's larger than the Comfort Inn sign below it.  It's before the light at the highway.It was easier to turn in there, and go behind to find the Comfort Suites.My room (121) is on the corner of the hallway for the back entrance, and it's in the back of the hotel on the left (when looking from the front).  The room was a little noisy as new guests arrived through the back door, talked outside the window, or honked their door locks - but by 10/11pm I slept and didn't hear a sound.  It may not be the best room if you have young children or are a light sleeper.  Though it was super convenient to get morning coffee.I was almost expecting the room to have more noise than it did.   I didn't hear the noise of people checking in or the TV in the lobby, (and it was louder during breakfast hours), and I didn't hear people getting coffee or any noise like that, from the bed or the couch while I was getting ready in the morning.  I could hear activity but not conversations from close to the door or while in front of the mirror - but it wasn't disturbing at all.The room did smell a little stale at first, but turning up the fan, and it was great in no time.  The scents didn't linger - AT ALL.  I liked that the TV didn't have that stupid hotel menu thing on it every time I turned it on.  The wi-fi connection got on-line very quickly and wasn't some annoying process.  The speed was better than other hotel chains I've been in.  Probably because the hotel is a smaller size, and simple layout.The smaller property also more than likely attribute to the friendlier, and more patient staff.  I appreciated that.  At breakfast the staff seemed to recognize many of the (apparently) regular guests - and that's always a sign of a staff that appreciates their guests and strives to take care of them.  They refreshed the coffee when it got empty, and did it fast.  All in all it was a good stay.More</t>
   </si>
   <si>
-    <t>Rebecca H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r147801925-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1195,9 +1360,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>Shawna S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r146018408-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1225,9 +1387,6 @@
     <t>This wasn't the worst hotel I have ever stayed in but it was close. First when we pulled up the front desk person was standing outside the front doors smoking. When we got into the room it smelled stale and just bad. There was scuff marks all over the walls EVERYWHERE! What made me mad about that was that its not that hard to paint over scuff marks. The pillows are really small. Comfortable but REALLY small. The bed was nice though. When I went to take a shower though the water was ice cold. I ended up washing my hair in the sink. When i complained about it the next morning while checking out the lady at the front desk just said "oh I am so sorry, I will pass that along to my manager so we can get the water fixed" very bad experience all togetherMore</t>
   </si>
   <si>
-    <t>gertrude22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r144629597-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1246,9 +1405,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Aunt_Tams</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r143712033-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1264,9 +1420,6 @@
     <t>Husband and I spent the night in Mesquite for relaxation time. Thanks to the management at the hotel that was amazingly done. Will stay again. The food was good and the beds were comfortable to sleep in. The room was nice and big. It was nice to walk out of the room and right into breakfast!</t>
   </si>
   <si>
-    <t>Joe M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r142831091-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1285,9 +1438,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>choicegirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r142594740-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1303,9 +1453,6 @@
     <t>Daily cleaning was okay but the carpet and walls were very dirty--bottoms of white socks turned black with only a few trips across the room. Beds &amp; bedding were comfortable. Internet was good. Nice breakfast area but altho there was a caretaker, tables weren't kept clean and food was not kept well stocked. Bagels were available, but no pastries, bread or muffins. Bananas were overripe. Motel access is hard to find. Altho a major highway is near, room was pretty quiet.</t>
   </si>
   <si>
-    <t>bondgirl42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r138877783-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1327,9 +1474,6 @@
     <t>We have stayed at this property several times when we come to an event in the Metroplex. Check-in is quick with a friendly staff. The breakfast is always good--eggs, sausage, biscuits &amp; gravy, waffles, yogurt, bagels, and cereal! This time though, the room smelled like cigarette smoke although it is a non-smoking facility. And the carpet in our room was apparently FILTHY because my feet were black after walking around in the room for a while! The carpet needs a thorough deep-cleaning shampooing. The bedding is great--nice and firm mattress. But what is the deal with those postage-stamp shape and sized pillows??? Overall, we will continue to stay here but this property will be due for some remodeling within another couple of years. If you're heading south on Beltline, turn in beside the dry cleaners.More</t>
   </si>
   <si>
-    <t>niki r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r137955051-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1345,7 +1489,91 @@
     <t>My mother and I had to stay here for 5 weeks.  We couldnt have ask for a better place to stay while being out of our home.  The staff here is awesome. They are all very friendly and accomadating no matter what you need or who you ask.  Its a very clean hotel, and the rooms are big and spacious.  They have free hot breakfast too.  And its not just a cereal breakfast; they serve eggs, biscuits, sausage/bacon, waffles, all sorts of pastries, cereal and yogurts. If you want a nice, convenient, clean place to stay this is your hotel.</t>
   </si>
   <si>
-    <t>Trisha6341</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r136337212-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>136337212</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Out of date and not so clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for two nights while attending a teachers conference. The room smelt of smoke immediately when walking in even though it was a non smoking room. The walls were dirty everywhere! The carpet was dirty and my feet were black after walking around the room. We couldn't get Internet service in the room after being told there was no problem with the wireless. The staff was nice and polite. All in all the hotel needs updates and a good hard cleaning!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r135108439-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>135108439</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Comfort Suites Mesquite, TX</t>
+  </si>
+  <si>
+    <t>Quick check-in.  Polite and informative at front desk.  Room very nice.  Good size. Plenty of large towels. Comfortable beds. Pool. Nice, hot breakfast.  Scrambled eggs were real eggs.  Coffee offered at breakfast was decaf, regular, and bold (strong).  Rooms were quiet.  The hotel sits on US-80 freeway in the east Dallas suburbs and has heavy traffic but no road noise in the room.I will definitely stay here again.  It could be difficult to find though.  Their web site had good directions. When getting off US-80, you head north on Belt Line Road in the right lane. You will see the sign of the motel and want to head east on the US-80 service road but the service road of 80 is one-way headed west.  The way to the motel, is to turn right into the parking lot of a bank in front of the motel.  In their parking lot, there are actually arrows for traffic to drive both directions to get to and from the motel from Belt Line Road.  Kind of unusual.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Quick check-in.  Polite and informative at front desk.  Room very nice.  Good size. Plenty of large towels. Comfortable beds. Pool. Nice, hot breakfast.  Scrambled eggs were real eggs.  Coffee offered at breakfast was decaf, regular, and bold (strong).  Rooms were quiet.  The hotel sits on US-80 freeway in the east Dallas suburbs and has heavy traffic but no road noise in the room.I will definitely stay here again.  It could be difficult to find though.  Their web site had good directions. When getting off US-80, you head north on Belt Line Road in the right lane. You will see the sign of the motel and want to head east on the US-80 service road but the service road of 80 is one-way headed west.  The way to the motel, is to turn right into the parking lot of a bank in front of the motel.  In their parking lot, there are actually arrows for traffic to drive both directions to get to and from the motel from Belt Line Road.  Kind of unusual.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r134217428-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>134217428</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>I brought my group of 24 Senior Adults here for one night on our way out West. They were very well organized, got us checked in &amp; luggage delivered in a timely manner. Very friendly &amp; knowledgeable. I find Comfort Suites so easy to work with from making the reservation till check-out.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r119516108-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>119516108</t>
+  </si>
+  <si>
+    <t>10/20/2011</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Took my mom and aunt for there very first over night stay there and the hotel was easy to get to and the rooms were nice and breakfast was great. Front desk staff were very helpfull in resturaunts to eat at and location. Had a blast. will definately stay agian.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r119440522-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>119440522</t>
+  </si>
+  <si>
+    <t>10/18/2011</t>
+  </si>
+  <si>
+    <t>Great Service and good stay</t>
+  </si>
+  <si>
+    <t>Customer service here was excellent! The hotel itself was average but clean.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r118116325-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1366,9 +1594,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>greenmonstertaiwan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r116025519-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1387,9 +1612,6 @@
     <t>December 2010</t>
   </si>
   <si>
-    <t>heydawn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r104163180-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1406,9 +1628,6 @@
   </si>
   <si>
     <t>April 2011</t>
-  </si>
-  <si>
-    <t>Jackie T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r100892000-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1434,9 +1653,6 @@
 The front desk people were friendly.  The location of the motel was in a commercial and slightly seedy, but not too much (at night), area.  The back door that used the hotel key to get in was broken so the lock didn't work.  There were a few restaurnants nearby.  The breakfast was the typical Comfort Suites one except that the scrambled eggs were excellent.  They were made with fresh eggs.  My son told the breakfast lady that they tasted like Waffle House scrambled eggs.  She said that she worked at Waffle House besides working at that Comfort Suites....We stayed here on Thursday, March 10th since my older son was visiting SMU the next day.  The sheets and bathrooms were clean.  The first room they gave us had an iron impression in the carpet where someone had forgotten to pick it up before it was too late.  I immediately told them about it so that they wouldn't think that it was my fault.  The front desk woman asked if I wanted to change rooms, so I did.  The second room was okay except for an old piece of gum ground into the carpet.  Since it was late at night, I said I didn't want to change rooms again since it wasn't on the main walking path.  The overall room was clean including sheets and the bathroom. The beds were very comfortable.  It was time for the carpet to be shampooed.The front desk people were friendly.  The location of the motel was in a commercial and slightly seedy, but not too much (at night), area.  The back door that used the hotel key to get in was broken so the lock didn't work.  There were a few restaurnants nearby.  The breakfast was the typical Comfort Suites one except that the scrambled eggs were excellent.  They were made with fresh eggs.  My son told the breakfast lady that they tasted like Waffle House scrambled eggs.  She said that she worked at Waffle House besides working at that Comfort Suites.I am not sure if I'd stay here or not again.  I like to stay with Choice Hotels, but most of the ones I've stayed in in the Dallas area aren't that great for various reasons (better in Ft. Worth).More</t>
   </si>
   <si>
-    <t>droberts12378</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r68380451-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1455,9 +1671,6 @@
     <t>June 2010</t>
   </si>
   <si>
-    <t>cultureseek</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r51964591-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1479,9 +1692,6 @@
     <t>We five were attending a Christmas concert in Dallas and needed two rooms. We were pleased with the desk's attitude as well as the breakfast. There were a couple of maintenance problems(phones between rooms and short time of disabled elevator), but on the whole we were quite satisfied.Be sure before you sign on the dotted line that you ask if there is a manager's discount or any other savings available. We were able to have some taken off our senior rate at this seasonal visit. The location is convenient.We ate at Steak Angus about a mile south on Beltline. Food was great with lots of choices, but don't expect it to be a "city" restaurant.More</t>
   </si>
   <si>
-    <t>vkosobucki</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r36154149-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1500,9 +1710,6 @@
     <t>July 2009</t>
   </si>
   <si>
-    <t>TexasJean70</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r21610587-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1518,9 +1725,6 @@
     <t>I had business in Mesquite Oct. 10, so chose this location for one night, Oct. 9. 2008.Was very nice, clean, great breakfast.  Found several places to eat within walking distance.  Desk personnel very helpful.  Will stay there again.</t>
   </si>
   <si>
-    <t>MrKevioni</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r13610217-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1534,17 +1738,14 @@
   </si>
   <si>
     <t>I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"
-Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker...I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker was clean. Pretty much everything was prepared for the next person to stay, with prepared shampoo &amp; conditioner for showering or baths, body lotion, even a head cap for your showers. Stacks of towels were clean and present  in the bathroom and out.There was a sofa, tea table, and plenty of lamps in all directions. Room could be well litted if you wanted it to. Luckily, my room was 220, which is upstairs, and just right across from my room (which is a nice 5 steps away) were the elevators and vending machines of instant noodles, snacks, drinks, and ice. You'd think it'll be noisy when it's right next to the elevator, but it was pretty much quiet. Sure you can hear when someone is exiting or entering the hall, but unless you are just too sensitive, you wouldn't be bothered.Overall, I was very impressed with my stay. Everyone there in the lobby at breakfast hour (which was when I first checked in) seemed to have a good time, ranging from kids to adults and seniors. I would definitely stay here again. I wish I get the same quality room. If I do, then I'd be very happy. With a price of $85 plus tax, it was a good deal. I asked for a single bed, which was cheaper, but they were sold out. So if you are indeed looking for a single bed, you are...MoreShow less</t>
+Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker...I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker was clean. Pretty much everything was prepared for the next person to stay, with prepared shampoo &amp; conditioner for showering or baths, body lotion, even a head cap for your showers. Stacks of towels were clean and present  in the bathroom and out.There was a sofa, tea table, and plenty of lamps in all directions. Room could be well litted if you wanted it to. Luckily, my room was 220, which is upstairs, and just right across from my room (which is a nice 5 steps away) were the elevators and vending machines of instant noodles, snacks, drinks, and ice. You'd think it'll be noisy when it's right next to the elevator, but it was pretty much quiet. Sure you can hear when someone is exiting or entering the hall, but unless you are just too sensitive, you wouldn't be bothered.Overall, I was very impressed with my stay. Everyone there in the lobby at breakfast hour (which was when I first checked in) seemed to have a good time, ranging from kids to adults and seniors. I would definitely stay here again. I wish I get the same quality room. If I do, then I'd be very happy. With a price of $85 plus tax, it was a good deal. I asked for a single bed, which was cheaper, but they were sold out. So if you are indeed looking for a single bed, you are looking at under $80 a night. The difference between this hotel and the one across the street La Quinta can be seen when you walk in, and that is, if you are a smoker and/or a pet lover with your pets coming along, sorry, they are not welcomed. They don't allow smoking and pets. It didn't bothered me because I didn't have both, but just a heads up.MoreShow less</t>
   </si>
   <si>
     <t>February 2008</t>
   </si>
   <si>
     <t>I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"
-Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker...I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker was clean. Pretty much everything was prepared for the next person to stay, with prepared shampoo &amp; conditioner for showering or baths, body lotion, even a head cap for your showers. Stacks of towels were clean and present  in the bathroom and out.There was a sofa, tea table, and plenty of lamps in all directions. Room could be well litted if you wanted it to. Luckily, my room was 220, which is upstairs, and just right across from my room (which is a nice 5 steps away) were the elevators and vending machines of instant noodles, snacks, drinks, and ice. You'd think it'll be noisy when it's right next to the elevator, but it was pretty much quiet. Sure you can hear when someone is exiting or entering the hall, but unless you are just too sensitive, you wouldn't be bothered.Overall, I was very impressed with my stay. Everyone there in the lobby at breakfast hour (which was when I first checked in) seemed to have a good time, ranging from kids to adults and seniors. I would definitely stay here again. I wish I get the same quality room. If I do, then I'd be very happy. With a price of $85 plus tax, it was a good deal. I asked for a single bed, which was cheaper, but they were sold out. So if you are indeed looking for a single bed, you are...More</t>
-  </si>
-  <si>
-    <t>The-Motel-Mavens</t>
+Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker...I was across the street at La Quinta to get a room for the day and night, and the nice guy behind the counter told me to get this Hotel and was told it was "basically the same, but cheaper"Boy, I have a lot of thanking to do. Basically I saved $40 by switching right across the street. You'd think maybe it must not have that great of a service or cleanness going on at Comfort Suite. I wish it was like this every time I stay here. Maybe time will tell, but for my first stay, it was great. Checked into the room with 2 beds, it was well cleaned, bathroom was cleaned, bed was clean with cleaned pillows, blankets and covers. TV had selected cable and the quality wasn't the best, but I wasn't picky, so I can't complain. They had internet, but I didn't use it. Breakfast was served, and I heard people say it was pretty good. You can hear people outside if they talk loud enough, but I didn't hear anyone next door to me, and yes, there were people there present. You had a heater and air conditioner right near the window. It was quiet to me, but may be a bit loud to some people. Let's just say, it's no louder than your average floor fans out in the market, that's for sure. Coffee and tea was present, and the coffee maker was clean. Pretty much everything was prepared for the next person to stay, with prepared shampoo &amp; conditioner for showering or baths, body lotion, even a head cap for your showers. Stacks of towels were clean and present  in the bathroom and out.There was a sofa, tea table, and plenty of lamps in all directions. Room could be well litted if you wanted it to. Luckily, my room was 220, which is upstairs, and just right across from my room (which is a nice 5 steps away) were the elevators and vending machines of instant noodles, snacks, drinks, and ice. You'd think it'll be noisy when it's right next to the elevator, but it was pretty much quiet. Sure you can hear when someone is exiting or entering the hall, but unless you are just too sensitive, you wouldn't be bothered.Overall, I was very impressed with my stay. Everyone there in the lobby at breakfast hour (which was when I first checked in) seemed to have a good time, ranging from kids to adults and seniors. I would definitely stay here again. I wish I get the same quality room. If I do, then I'd be very happy. With a price of $85 plus tax, it was a good deal. I asked for a single bed, which was cheaper, but they were sold out. So if you are indeed looking for a single bed, you are looking at under $80 a night. The difference between this hotel and the one across the street La Quinta can be seen when you walk in, and that is, if you are a smoker and/or a pet lover with your pets coming along, sorry, they are not welcomed. They don't allow smoking and pets. It didn't bothered me because I didn't have both, but just a heads up.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r8510340-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
@@ -1578,6 +1779,60 @@
 Motels need to learn that using obnoxious, overbearing air freshener does not equate with cleanliness. Fortunately the window opened to allow fresh air in, but the scent was still so bad that it had infested the pillows, which we had to exchange in order to sleep without getting headaches.
 The bathroom was not clean. There were pubic hairs and dried urine on the toilet seat and there was obviously an area above the water line inside the toilet where cleaning was desperately needed. There was a dark "smudge" inside the lid of the toilet seat.
 The entry light in the room was not working, one of the bulbs over the vanity was burned out, and two of the bulbs over the tub/toilet area were burned out. This...We had planned to stay two nights in our king room ($59.95) but only ended up staying one after we encountered a number of problems.Upon check-in we requested a quiet room and the desk clerk tried to put us in a room that opened into the lobby, right across from the breakfast area with its attendant noise and TV. We asked for another room and were given one upstairs.On the plus side, the room was spacious, included a sofa and coffee table, and the high-speed internet worked fine. The TV featured a limited selection of cable channels but did have four HBIOs,There were, however, significant problems with cleanliness and maintenance.Motels need to learn that using obnoxious, overbearing air freshener does not equate with cleanliness. Fortunately the window opened to allow fresh air in, but the scent was still so bad that it had infested the pillows, which we had to exchange in order to sleep without getting headaches.The bathroom was not clean. There were pubic hairs and dried urine on the toilet seat and there was obviously an area above the water line inside the toilet where cleaning was desperately needed. There was a dark "smudge" inside the lid of the toilet seat.The entry light in the room was not working, one of the bulbs over the vanity was burned out, and two of the bulbs over the tub/toilet area were burned out. This led us to theorize that perhaps the maid couldn't see the toilet clearly in the dim light. The desk clerk promised someone would come up and fix these things but this never happened.Breakfast was pretty good and included scrambled eggs and sausage, which we had to wait 20 minutes for while a new batch was prepared.Ultimately, this place isn't worth the price. The rooms are not adequately cleaned or maintained, the air freshener is about as obnoxious as they come, and the desk staff is big on promises and short on results.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r8237322-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>8237322</t>
+  </si>
+  <si>
+    <t>07/25/2007</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, Brand New</t>
+  </si>
+  <si>
+    <t>This hotel seemed brand new. Very nice rooms, very comfortable beds and with fridges and microwaves. Showers were very good. The staff recommended a nice Texas Steakhouse and it was awesome. Planning a trip to this place again. Price was affordable and the breakfast was above average. Highly recommend.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r4055665-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>4055665</t>
+  </si>
+  <si>
+    <t>10/26/2005</t>
+  </si>
+  <si>
+    <t>Go On By</t>
+  </si>
+  <si>
+    <t>The hallway was full of smoke on our non-smoking floor. Immediately we complained about the poor picture on TV.  The man at the desk looked at it and said that was the best picture he could get with the local stations on antennae!!  What no cable??  We are Nascar fans and could not enjoy the race on NBC.  You couldn't read the score of the NotreDame/USC game in the corner of the screen nor read the ticker line at the bottom of the screen.The coffee pot in the room had to have the switch held on to get it to work. The food for breakfast was very nice with meat and TX shaped waffles you make yourself.  However, I feel like hurricane refugees were living there.  There were children watching TV in the eating area and the tables were strewn with dirty dishes, leftover breakfast, in general a mess.There is a wonderful Mexican restaurant nearby, Posadoes, sopapillas and the ice cream machine are included with the meals.  We cancelled our reservation for the return trip.  My advice, "GO ON BY" this Comfort Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hallway was full of smoke on our non-smoking floor. Immediately we complained about the poor picture on TV.  The man at the desk looked at it and said that was the best picture he could get with the local stations on antennae!!  What no cable??  We are Nascar fans and could not enjoy the race on NBC.  You couldn't read the score of the NotreDame/USC game in the corner of the screen nor read the ticker line at the bottom of the screen.The coffee pot in the room had to have the switch held on to get it to work. The food for breakfast was very nice with meat and TX shaped waffles you make yourself.  However, I feel like hurricane refugees were living there.  There were children watching TV in the eating area and the tables were strewn with dirty dishes, leftover breakfast, in general a mess.There is a wonderful Mexican restaurant nearby, Posadoes, sopapillas and the ice cream machine are included with the meals.  We cancelled our reservation for the return trip.  My advice, "GO ON BY" this Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d293237-r1766582-Comfort_Suites_Mesquite-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>1766582</t>
+  </si>
+  <si>
+    <t>04/05/2004</t>
+  </si>
+  <si>
+    <t>AWESOME PLACE TO STAY...</t>
+  </si>
+  <si>
+    <t>I booked a one night stay (March 20-2004) in a jacuzzi room for my daughter and her husband as a surprise on their first wedding anniversary and they were totally thrilled with the room. This hotel is just a few months old so everything still looks BRAND NEW. I only live about 7 miles from this hotel so when they checked in they called me and invited me to stop by and see the room that I had booked for them and I was also very impressed. I don't know if all the rooms are as big as the jacuzzi rooms but this room was quite large with a beautiful king-size 4 poster bed and very sophisticated furnishings (bedspread didn't look cheap and neither did curtains or pictures on wall). It had what I would call a small bar area in it as well as a very nice bathroom with a marble tiled wall in the tub/shower. It also had a desk and chair, cherrywood armoire with TV, and very nice sized jacuzzi in the corner of the bedroom. I went through orbitz.com and got an incredible deal on this room. They also offer a continental breakfast that comes with the price of the room. I also was very impressed with the staff there. I spoke with Tina and she was extremely friendly and helpful. I will recommend this hotel to anyone I know that needs a place to stay...I booked a one night stay (March 20-2004) in a jacuzzi room for my daughter and her husband as a surprise on their first wedding anniversary and they were totally thrilled with the room. This hotel is just a few months old so everything still looks BRAND NEW. I only live about 7 miles from this hotel so when they checked in they called me and invited me to stop by and see the room that I had booked for them and I was also very impressed. I don't know if all the rooms are as big as the jacuzzi rooms but this room was quite large with a beautiful king-size 4 poster bed and very sophisticated furnishings (bedspread didn't look cheap and neither did curtains or pictures on wall). It had what I would call a small bar area in it as well as a very nice bathroom with a marble tiled wall in the tub/shower. It also had a desk and chair, cherrywood armoire with TV, and very nice sized jacuzzi in the corner of the bedroom. I went through orbitz.com and got an incredible deal on this room. They also offer a continental breakfast that comes with the price of the room. I also was very impressed with the staff there. I spoke with Tina and she was extremely friendly and helpful. I will recommend this hotel to anyone I know that needs a place to stay in the Mesquite,TX area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a one night stay (March 20-2004) in a jacuzzi room for my daughter and her husband as a surprise on their first wedding anniversary and they were totally thrilled with the room. This hotel is just a few months old so everything still looks BRAND NEW. I only live about 7 miles from this hotel so when they checked in they called me and invited me to stop by and see the room that I had booked for them and I was also very impressed. I don't know if all the rooms are as big as the jacuzzi rooms but this room was quite large with a beautiful king-size 4 poster bed and very sophisticated furnishings (bedspread didn't look cheap and neither did curtains or pictures on wall). It had what I would call a small bar area in it as well as a very nice bathroom with a marble tiled wall in the tub/shower. It also had a desk and chair, cherrywood armoire with TV, and very nice sized jacuzzi in the corner of the bedroom. I went through orbitz.com and got an incredible deal on this room. They also offer a continental breakfast that comes with the price of the room. I also was very impressed with the staff there. I spoke with Tina and she was extremely friendly and helpful. I will recommend this hotel to anyone I know that needs a place to stay...I booked a one night stay (March 20-2004) in a jacuzzi room for my daughter and her husband as a surprise on their first wedding anniversary and they were totally thrilled with the room. This hotel is just a few months old so everything still looks BRAND NEW. I only live about 7 miles from this hotel so when they checked in they called me and invited me to stop by and see the room that I had booked for them and I was also very impressed. I don't know if all the rooms are as big as the jacuzzi rooms but this room was quite large with a beautiful king-size 4 poster bed and very sophisticated furnishings (bedspread didn't look cheap and neither did curtains or pictures on wall). It had what I would call a small bar area in it as well as a very nice bathroom with a marble tiled wall in the tub/shower. It also had a desk and chair, cherrywood armoire with TV, and very nice sized jacuzzi in the corner of the bedroom. I went through orbitz.com and got an incredible deal on this room. They also offer a continental breakfast that comes with the price of the room. I also was very impressed with the staff there. I spoke with Tina and she was extremely friendly and helpful. I will recommend this hotel to anyone I know that needs a place to stay in the Mesquite,TX area.More</t>
   </si>
 </sst>
 </file>
@@ -2082,58 +2337,46 @@
       <c r="A2" t="n">
         <v>52069</v>
       </c>
-      <c r="B2" t="n">
-        <v>125614</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2147,57 +2390,53 @@
       <c r="A3" t="n">
         <v>52069</v>
       </c>
-      <c r="B3" t="n">
-        <v>125615</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2205,115 +2444,111 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52069</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52069</v>
       </c>
-      <c r="B5" t="n">
-        <v>125616</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2327,54 +2562,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52069</v>
       </c>
-      <c r="B6" t="n">
-        <v>4496</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2388,54 +2619,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52069</v>
       </c>
-      <c r="B7" t="n">
-        <v>125617</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2449,51 +2676,51 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52069</v>
       </c>
-      <c r="B8" t="n">
-        <v>15136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2506,259 +2733,233 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52069</v>
       </c>
-      <c r="B9" t="n">
-        <v>125618</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52069</v>
       </c>
-      <c r="B10" t="n">
-        <v>4496</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52069</v>
       </c>
-      <c r="B11" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52069</v>
       </c>
-      <c r="B12" t="n">
-        <v>125619</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2766,112 +2967,110 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52069</v>
       </c>
-      <c r="B13" t="n">
-        <v>23317</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>121</v>
+      </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52069</v>
       </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="N14" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" t="s">
-        <v>54</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2884,175 +3083,178 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52069</v>
       </c>
-      <c r="B15" t="n">
-        <v>125620</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52069</v>
       </c>
-      <c r="B16" t="n">
-        <v>14883</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52069</v>
       </c>
-      <c r="B17" t="n">
-        <v>125621</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3060,131 +3262,119 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52069</v>
       </c>
-      <c r="B18" t="n">
-        <v>58351</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52069</v>
       </c>
-      <c r="B19" t="n">
-        <v>125622</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3192,43 +3382,51 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52069</v>
       </c>
-      <c r="B20" t="n">
-        <v>125623</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -3238,127 +3436,128 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52069</v>
       </c>
-      <c r="B21" t="n">
-        <v>9516</v>
-      </c>
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>182</v>
-      </c>
-      <c r="X21" t="s">
-        <v>183</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52069</v>
       </c>
-      <c r="B22" t="n">
-        <v>125624</v>
-      </c>
-      <c r="C22" t="s">
-        <v>185</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3366,1479 +3565,1351 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52069</v>
       </c>
-      <c r="B23" t="n">
-        <v>9684</v>
-      </c>
-      <c r="C23" t="s">
-        <v>192</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>199</v>
-      </c>
-      <c r="X23" t="s">
-        <v>200</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52069</v>
       </c>
-      <c r="B24" t="n">
-        <v>14578</v>
-      </c>
-      <c r="C24" t="s">
-        <v>202</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>199</v>
-      </c>
-      <c r="X24" t="s">
-        <v>200</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52069</v>
       </c>
-      <c r="B25" t="n">
-        <v>9665</v>
-      </c>
-      <c r="C25" t="s">
-        <v>210</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>125</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>199</v>
-      </c>
-      <c r="X25" t="s">
-        <v>200</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52069</v>
       </c>
-      <c r="B26" t="n">
-        <v>125625</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>208</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
         <v>2</v>
       </c>
-      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="X26" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52069</v>
       </c>
-      <c r="B27" t="n">
-        <v>40956</v>
-      </c>
-      <c r="C27" t="s">
-        <v>227</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="X27" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52069</v>
       </c>
-      <c r="B28" t="n">
-        <v>41150</v>
-      </c>
-      <c r="C28" t="s">
-        <v>237</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>244</v>
-      </c>
-      <c r="X28" t="s">
-        <v>245</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52069</v>
       </c>
-      <c r="B29" t="n">
-        <v>125626</v>
-      </c>
-      <c r="C29" t="s">
-        <v>247</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="X29" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52069</v>
       </c>
-      <c r="B30" t="n">
-        <v>37916</v>
-      </c>
-      <c r="C30" t="s">
-        <v>254</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="X30" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52069</v>
       </c>
-      <c r="B31" t="n">
-        <v>4449</v>
-      </c>
-      <c r="C31" t="s">
-        <v>262</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="X31" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="Y31" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52069</v>
       </c>
-      <c r="B32" t="n">
-        <v>125627</v>
-      </c>
-      <c r="C32" t="s">
-        <v>272</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
       <c r="R32" t="n">
         <v>2</v>
       </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="X32" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="Y32" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52069</v>
       </c>
-      <c r="B33" t="n">
-        <v>125628</v>
-      </c>
-      <c r="C33" t="s">
-        <v>283</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="X33" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52069</v>
       </c>
-      <c r="B34" t="n">
-        <v>125629</v>
-      </c>
-      <c r="C34" t="s">
-        <v>292</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
         <v>3</v>
       </c>
-      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="X34" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52069</v>
       </c>
-      <c r="B35" t="n">
-        <v>125623</v>
-      </c>
-      <c r="C35" t="s">
-        <v>185</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="J35" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
       <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="X35" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52069</v>
       </c>
-      <c r="B36" t="n">
-        <v>151</v>
-      </c>
-      <c r="C36" t="s">
-        <v>311</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="X36" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52069</v>
       </c>
-      <c r="B37" t="n">
-        <v>125630</v>
-      </c>
-      <c r="C37" t="s">
-        <v>321</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>288</v>
+      </c>
+      <c r="X37" t="s">
+        <v>289</v>
+      </c>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52069</v>
       </c>
-      <c r="B38" t="n">
-        <v>125631</v>
-      </c>
-      <c r="C38" t="s">
-        <v>329</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
-        <v>208</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="X38" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="Y38" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52069</v>
       </c>
-      <c r="B39" t="n">
-        <v>3976</v>
-      </c>
-      <c r="C39" t="s">
-        <v>338</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>208</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="X39" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52069</v>
       </c>
-      <c r="B40" t="n">
-        <v>125632</v>
-      </c>
-      <c r="C40" t="s">
-        <v>348</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="J40" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="X40" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52069</v>
       </c>
-      <c r="B41" t="n">
-        <v>125633</v>
-      </c>
-      <c r="C41" t="s">
-        <v>355</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>208</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="X41" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52069</v>
       </c>
-      <c r="B42" t="n">
-        <v>4468</v>
-      </c>
-      <c r="C42" t="s">
-        <v>363</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>333</v>
+      </c>
+      <c r="X42" t="s">
+        <v>334</v>
+      </c>
       <c r="Y42" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52069</v>
       </c>
-      <c r="B43" t="n">
-        <v>125634</v>
-      </c>
-      <c r="C43" t="s">
-        <v>370</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s">
-        <v>76</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
         <v>4</v>
       </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4849,57 +4920,53 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52069</v>
       </c>
-      <c r="B44" t="n">
-        <v>10808</v>
-      </c>
-      <c r="C44" t="s">
-        <v>378</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="J44" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>4</v>
@@ -4908,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4917,132 +4984,128 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>348</v>
+      </c>
+      <c r="X44" t="s">
+        <v>349</v>
+      </c>
       <c r="Y44" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52069</v>
       </c>
-      <c r="B45" t="n">
-        <v>125635</v>
-      </c>
-      <c r="C45" t="s">
-        <v>385</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52069</v>
       </c>
-      <c r="B46" t="n">
-        <v>125636</v>
-      </c>
-      <c r="C46" t="s">
-        <v>395</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5051,10 +5114,10 @@
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -5063,128 +5126,128 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>357</v>
+      </c>
+      <c r="X46" t="s">
+        <v>358</v>
+      </c>
       <c r="Y46" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52069</v>
       </c>
-      <c r="B47" t="n">
-        <v>125637</v>
-      </c>
-      <c r="C47" t="s">
-        <v>402</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>288</v>
+      </c>
+      <c r="X47" t="s">
+        <v>289</v>
+      </c>
       <c r="Y47" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52069</v>
       </c>
-      <c r="B48" t="n">
-        <v>4124</v>
-      </c>
-      <c r="C48" t="s">
-        <v>408</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="O48" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5193,10 +5256,10 @@
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5205,284 +5268,286 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>379</v>
+      </c>
+      <c r="X48" t="s">
+        <v>380</v>
+      </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52069</v>
       </c>
-      <c r="B49" t="n">
-        <v>125638</v>
-      </c>
-      <c r="C49" t="s">
-        <v>415</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="K49" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
         <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>387</v>
+      </c>
+      <c r="X49" t="s">
+        <v>388</v>
+      </c>
       <c r="Y49" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52069</v>
       </c>
-      <c r="B50" t="n">
-        <v>125639</v>
-      </c>
-      <c r="C50" t="s">
-        <v>421</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="J50" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
         <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>396</v>
+      </c>
+      <c r="X50" t="s">
+        <v>397</v>
+      </c>
       <c r="Y50" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52069</v>
       </c>
-      <c r="B51" t="n">
-        <v>125640</v>
-      </c>
-      <c r="C51" t="s">
-        <v>429</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="J51" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>405</v>
+      </c>
+      <c r="X51" t="s">
+        <v>406</v>
+      </c>
       <c r="Y51" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52069</v>
       </c>
-      <c r="B52" t="n">
-        <v>125641</v>
-      </c>
-      <c r="C52" t="s">
-        <v>435</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="J52" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="K52" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="O52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
         <v>3</v>
       </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5490,66 +5555,66 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52069</v>
       </c>
-      <c r="B53" t="n">
-        <v>125642</v>
-      </c>
-      <c r="C53" t="s">
-        <v>442</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="J53" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="K53" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5557,70 +5622,66 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52069</v>
       </c>
-      <c r="B54" t="n">
-        <v>125643</v>
-      </c>
-      <c r="C54" t="s">
-        <v>449</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="K54" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5628,70 +5689,66 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52069</v>
       </c>
-      <c r="B55" t="n">
-        <v>68553</v>
-      </c>
-      <c r="C55" t="s">
-        <v>456</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="J55" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="K55" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="L55" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
         <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5699,202 +5756,204 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52069</v>
       </c>
-      <c r="B56" t="n">
-        <v>125644</v>
-      </c>
-      <c r="C56" t="s">
-        <v>464</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="J56" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="K56" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="O56" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>438</v>
+      </c>
+      <c r="X56" t="s">
+        <v>439</v>
+      </c>
       <c r="Y56" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52069</v>
       </c>
-      <c r="B57" t="n">
-        <v>125645</v>
-      </c>
-      <c r="C57" t="s">
-        <v>471</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="J57" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="K57" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="L57" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="O57" t="s">
-        <v>54</v>
-      </c>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>52069</v>
       </c>
-      <c r="B58" t="n">
-        <v>125646</v>
-      </c>
-      <c r="C58" t="s">
-        <v>479</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="J58" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="K58" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5902,127 +5961,133 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>52069</v>
       </c>
-      <c r="B59" t="n">
-        <v>125647</v>
-      </c>
-      <c r="C59" t="s">
-        <v>486</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="J59" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="K59" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="L59" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
-      </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>457</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>52069</v>
       </c>
-      <c r="B60" t="n">
-        <v>125648</v>
-      </c>
-      <c r="C60" t="s">
-        <v>492</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="J60" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="K60" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="L60" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="O60" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
         <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6030,70 +6095,66 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>52069</v>
       </c>
-      <c r="B61" t="n">
-        <v>125649</v>
-      </c>
-      <c r="C61" t="s">
-        <v>500</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="J61" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="K61" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="L61" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="O61" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
         <v>3</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6101,7 +6162,1226 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>470</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>471</v>
+      </c>
+      <c r="J62" t="s">
+        <v>472</v>
+      </c>
+      <c r="K62" t="s">
+        <v>473</v>
+      </c>
+      <c r="L62" t="s">
+        <v>474</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>468</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" t="s">
+        <v>477</v>
+      </c>
+      <c r="K63" t="s">
+        <v>478</v>
+      </c>
+      <c r="L63" t="s">
+        <v>479</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>481</v>
+      </c>
+      <c r="J64" t="s">
+        <v>482</v>
+      </c>
+      <c r="K64" t="s">
+        <v>483</v>
+      </c>
+      <c r="L64" t="s">
+        <v>484</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>485</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>487</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>488</v>
+      </c>
+      <c r="J65" t="s">
+        <v>489</v>
+      </c>
+      <c r="K65" t="s">
+        <v>490</v>
+      </c>
+      <c r="L65" t="s">
+        <v>491</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>492</v>
+      </c>
+      <c r="O65" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>493</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>494</v>
+      </c>
+      <c r="J66" t="s">
+        <v>495</v>
+      </c>
+      <c r="K66" t="s">
+        <v>496</v>
+      </c>
+      <c r="L66" t="s">
+        <v>497</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>498</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>499</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>500</v>
+      </c>
+      <c r="J67" t="s">
+        <v>501</v>
+      </c>
+      <c r="K67" t="s">
+        <v>502</v>
+      </c>
+      <c r="L67" t="s">
+        <v>503</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>498</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>504</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>505</v>
+      </c>
+      <c r="J68" t="s">
+        <v>506</v>
+      </c>
+      <c r="K68" t="s">
         <v>507</v>
+      </c>
+      <c r="L68" t="s">
+        <v>508</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>509</v>
+      </c>
+      <c r="O68" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>511</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>513</v>
+      </c>
+      <c r="L69" t="s">
+        <v>514</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>515</v>
+      </c>
+      <c r="O69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>517</v>
+      </c>
+      <c r="J70" t="s">
+        <v>518</v>
+      </c>
+      <c r="K70" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>521</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+      <c r="J71" t="s">
+        <v>524</v>
+      </c>
+      <c r="K71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L71" t="s">
+        <v>526</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>527</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>529</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>530</v>
+      </c>
+      <c r="J72" t="s">
+        <v>531</v>
+      </c>
+      <c r="K72" t="s">
+        <v>532</v>
+      </c>
+      <c r="L72" t="s">
+        <v>533</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>534</v>
+      </c>
+      <c r="O72" t="s">
+        <v>234</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>535</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>536</v>
+      </c>
+      <c r="J73" t="s">
+        <v>537</v>
+      </c>
+      <c r="K73" t="s">
+        <v>538</v>
+      </c>
+      <c r="L73" t="s">
+        <v>539</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>540</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>542</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>543</v>
+      </c>
+      <c r="J74" t="s">
+        <v>544</v>
+      </c>
+      <c r="K74" t="s">
+        <v>545</v>
+      </c>
+      <c r="L74" t="s">
+        <v>546</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>547</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>548</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>549</v>
+      </c>
+      <c r="J75" t="s">
+        <v>550</v>
+      </c>
+      <c r="K75" t="s">
+        <v>551</v>
+      </c>
+      <c r="L75" t="s">
+        <v>552</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>553</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>554</v>
+      </c>
+      <c r="J76" t="s">
+        <v>555</v>
+      </c>
+      <c r="K76" t="s">
+        <v>556</v>
+      </c>
+      <c r="L76" t="s">
+        <v>557</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>558</v>
+      </c>
+      <c r="O76" t="s">
+        <v>234</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>560</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>561</v>
+      </c>
+      <c r="J77" t="s">
+        <v>562</v>
+      </c>
+      <c r="K77" t="s">
+        <v>563</v>
+      </c>
+      <c r="L77" t="s">
+        <v>564</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>565</v>
+      </c>
+      <c r="O77" t="s">
+        <v>234</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>567</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>568</v>
+      </c>
+      <c r="J78" t="s">
+        <v>569</v>
+      </c>
+      <c r="K78" t="s">
+        <v>570</v>
+      </c>
+      <c r="L78" t="s">
+        <v>571</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>572</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>573</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>574</v>
+      </c>
+      <c r="J79" t="s">
+        <v>575</v>
+      </c>
+      <c r="K79" t="s">
+        <v>576</v>
+      </c>
+      <c r="L79" t="s">
+        <v>577</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52069</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>580</v>
+      </c>
+      <c r="J80" t="s">
+        <v>581</v>
+      </c>
+      <c r="K80" t="s">
+        <v>582</v>
+      </c>
+      <c r="L80" t="s">
+        <v>583</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
